--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB13">
         <v>0.95</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1.5</v>
-      </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6228555</v>
+        <v>6228018</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1942,13 +1942,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1957,25 +1957,25 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
         <v>1.875</v>
@@ -1984,7 +1984,7 @@
         <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -1993,7 +1993,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228018</v>
+        <v>6228555</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,13 +2031,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L18">
+        <v>4.8</v>
+      </c>
+      <c r="M18">
+        <v>4.8</v>
+      </c>
+      <c r="N18">
+        <v>1.444</v>
+      </c>
+      <c r="O18">
+        <v>4.75</v>
+      </c>
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.65</v>
-      </c>
-      <c r="O18">
-        <v>4.2</v>
-      </c>
-      <c r="P18">
-        <v>3.6</v>
-      </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2073,7 +2073,7 @@
         <v>1.975</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2082,7 +2082,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228019</v>
+        <v>6228556</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,49 +2120,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>1.166</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="N19">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U19">
         <v>1.85</v>
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228556</v>
+        <v>6228019</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,49 +2209,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>1.166</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>1.222</v>
+        <v>11</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U20">
         <v>1.85</v>
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2269,7 +2269,7 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228565</v>
+        <v>6228021</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,55 +3099,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L30">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q30">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
         <v>1.9</v>
       </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
       <c r="T30">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3156,19 +3156,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228021</v>
+        <v>6228565</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,55 +3188,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M31">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
         <v>1.95</v>
       </c>
-      <c r="S31">
-        <v>1.9</v>
-      </c>
       <c r="T31">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3245,19 +3245,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,76 +5413,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <v>3.4</v>
+      </c>
+      <c r="L56">
+        <v>4.1</v>
+      </c>
+      <c r="M56">
+        <v>1.727</v>
+      </c>
+      <c r="N56">
+        <v>4.5</v>
+      </c>
+      <c r="O56">
+        <v>4.5</v>
+      </c>
+      <c r="P56">
+        <v>1.533</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.85</v>
+      </c>
+      <c r="T56">
+        <v>3.5</v>
+      </c>
+      <c r="U56">
+        <v>1.925</v>
+      </c>
+      <c r="V56">
+        <v>1.925</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56">
-        <v>1.222</v>
-      </c>
-      <c r="L56">
-        <v>5.75</v>
-      </c>
-      <c r="M56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1.25</v>
-      </c>
-      <c r="O56">
-        <v>5.5</v>
-      </c>
-      <c r="P56">
-        <v>7</v>
-      </c>
-      <c r="Q56">
-        <v>-1.75</v>
-      </c>
-      <c r="R56">
-        <v>1.875</v>
-      </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
-      <c r="T56">
-        <v>4</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
-      <c r="V56">
-        <v>2.025</v>
-      </c>
-      <c r="W56">
-        <v>0.25</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>0.875</v>
-      </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,76 +5502,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57">
+        <v>1.222</v>
+      </c>
+      <c r="L57">
+        <v>5.75</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57">
+        <v>1.25</v>
+      </c>
+      <c r="O57">
+        <v>5.5</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>-1.75</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="J57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K57">
-        <v>3.4</v>
-      </c>
-      <c r="L57">
-        <v>4.1</v>
-      </c>
-      <c r="M57">
-        <v>1.727</v>
-      </c>
-      <c r="N57">
-        <v>4.5</v>
-      </c>
-      <c r="O57">
-        <v>4.5</v>
-      </c>
-      <c r="P57">
-        <v>1.533</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>1.8</v>
+      </c>
+      <c r="N75">
+        <v>3.4</v>
+      </c>
+      <c r="O75">
         <v>4.2</v>
       </c>
-      <c r="M75">
-        <v>1.5</v>
-      </c>
-      <c r="N75">
-        <v>7.5</v>
-      </c>
-      <c r="O75">
-        <v>4.75</v>
-      </c>
       <c r="P75">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z75">
+        <v>-0.5</v>
+      </c>
+      <c r="AA75">
+        <v>0.5125</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="N84">
+        <v>2.05</v>
+      </c>
+      <c r="O84">
         <v>4.5</v>
       </c>
-      <c r="M84">
-        <v>3.75</v>
-      </c>
-      <c r="N84">
-        <v>1.8</v>
-      </c>
-      <c r="O84">
-        <v>4.2</v>
-      </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB84">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
+        <v>3.75</v>
+      </c>
+      <c r="U85">
         <v>1.925</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="T85">
-        <v>4</v>
-      </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8427,7 +8427,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8439,76 +8439,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8516,7 +8516,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8528,76 +8528,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
+        <v>2.25</v>
+      </c>
+      <c r="N91">
+        <v>2.45</v>
+      </c>
+      <c r="O91">
         <v>3.6</v>
       </c>
-      <c r="N91">
-        <v>1.5</v>
-      </c>
-      <c r="O91">
-        <v>3.8</v>
-      </c>
       <c r="P91">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9863,76 +9863,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
+        <v>5</v>
+      </c>
+      <c r="U106">
         <v>1.925</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.925</v>
       </c>
-      <c r="T106">
-        <v>4.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9952,76 +9952,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
+        <v>3.75</v>
+      </c>
+      <c r="M107">
+        <v>2.7</v>
+      </c>
+      <c r="N107">
+        <v>2.1</v>
+      </c>
+      <c r="O107">
         <v>4.2</v>
       </c>
-      <c r="M107">
-        <v>1.5</v>
-      </c>
-      <c r="N107">
-        <v>5</v>
-      </c>
-      <c r="O107">
-        <v>4.5</v>
-      </c>
       <c r="P107">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228547</v>
+        <v>6228016</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1052,76 +1052,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P7">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
         <v>1.95</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.9</v>
       </c>
-      <c r="T7">
-        <v>4.25</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228016</v>
+        <v>6228547</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,76 +1141,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
+        <v>4.75</v>
+      </c>
+      <c r="L8">
+        <v>4.75</v>
+      </c>
+      <c r="M8">
         <v>1.444</v>
       </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228550</v>
+        <v>6228017</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,40 +1408,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>2.1</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>6.5</v>
-      </c>
-      <c r="M11">
-        <v>1.166</v>
-      </c>
       <c r="N11">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1450,34 +1450,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>0.925</v>
       </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6228017</v>
+        <v>6228550</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1497,40 +1497,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1539,34 +1539,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.925</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>1.5</v>
-      </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB14">
         <v>0.95</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6228553</v>
+        <v>6228554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1764,76 +1764,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
         <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1841,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6228554</v>
+        <v>6228553</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1853,76 +1853,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228021</v>
+        <v>6228565</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,55 +3099,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="L30">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="S30">
-        <v>1.9</v>
-      </c>
       <c r="T30">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3156,19 +3156,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228565</v>
+        <v>6228021</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,55 +3188,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M31">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N31">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
         <v>1.9</v>
       </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
       <c r="T31">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3245,19 +3245,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -6202,7 +6202,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6214,13 +6214,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6229,43 +6229,43 @@
         <v>38</v>
       </c>
       <c r="K65">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O65">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6274,16 +6274,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6291,7 +6291,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6303,13 +6303,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6318,43 +6318,43 @@
         <v>38</v>
       </c>
       <c r="K66">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L66">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q66">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6363,16 +6363,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6647,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6659,55 +6659,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L70">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M70">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O70">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P70">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6716,16 +6716,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6748,55 +6748,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
       </c>
       <c r="K71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L71">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M71">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O71">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P71">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6805,16 +6805,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1.8</v>
+      </c>
+      <c r="N74">
+        <v>3.4</v>
+      </c>
+      <c r="O74">
         <v>4.2</v>
       </c>
-      <c r="M74">
-        <v>1.5</v>
-      </c>
-      <c r="N74">
-        <v>7.5</v>
-      </c>
-      <c r="O74">
-        <v>4.75</v>
-      </c>
       <c r="P74">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z74">
+        <v>-0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0.5125</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M75">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7359,7 +7359,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7371,19 +7371,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>1.2</v>
@@ -7395,52 +7395,52 @@
         <v>9</v>
       </c>
       <c r="N78">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O78">
         <v>7.5</v>
       </c>
       <c r="P78">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q78">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7448,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7460,19 +7460,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K79">
         <v>1.2</v>
@@ -7484,52 +7484,52 @@
         <v>9</v>
       </c>
       <c r="N79">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O79">
         <v>7.5</v>
       </c>
       <c r="P79">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q79">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>3.75</v>
+      </c>
+      <c r="U84">
         <v>1.925</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.925</v>
       </c>
-      <c r="T84">
-        <v>4</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
       <c r="J85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>2.6</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
         <v>4.5</v>
       </c>
-      <c r="M85">
-        <v>3.75</v>
-      </c>
-      <c r="N85">
-        <v>1.8</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9584,7 +9584,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9596,40 +9596,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K103">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M103">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
         <v>1.975</v>
@@ -9638,34 +9638,34 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9673,7 +9673,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9685,40 +9685,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L104">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N104">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9727,34 +9727,34 @@
         <v>1.875</v>
       </c>
       <c r="T104">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9863,76 +9863,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>2.7</v>
+      </c>
+      <c r="N106">
+        <v>2.1</v>
+      </c>
+      <c r="O106">
         <v>4.2</v>
       </c>
-      <c r="M106">
-        <v>1.5</v>
-      </c>
-      <c r="N106">
-        <v>5</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
-      </c>
       <c r="P106">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9952,76 +9952,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>5</v>
+      </c>
+      <c r="U107">
         <v>1.925</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.925</v>
       </c>
-      <c r="T107">
-        <v>4.25</v>
-      </c>
-      <c r="U107">
-        <v>1.9</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Tampines Rovers FC</t>
   </si>
   <si>
-    <t>Tampines Rovers FC</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>Balestier Khalsa FC</t>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6228543</v>
+        <v>6228544</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -699,73 +699,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228544</v>
+        <v>6228543</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>1.1</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>-2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.95</v>
+      </c>
+      <c r="T4">
         <v>4.5</v>
       </c>
-      <c r="M4">
-        <v>3.3</v>
-      </c>
-      <c r="N4">
-        <v>1.65</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>3.5</v>
-      </c>
-      <c r="Q4">
-        <v>-0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X4">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228016</v>
+        <v>6228547</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1052,76 +1052,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
+        <v>4.75</v>
+      </c>
+      <c r="L7">
+        <v>4.75</v>
+      </c>
+      <c r="M7">
         <v>1.444</v>
       </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228547</v>
+        <v>6228016</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,76 +1141,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.825</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.75</v>
+      </c>
+      <c r="U8">
         <v>1.95</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.9</v>
       </c>
-      <c r="T8">
-        <v>4.25</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228017</v>
+        <v>6228550</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,40 +1408,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N11">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1450,34 +1450,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.925</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6228550</v>
+        <v>6228017</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1497,40 +1497,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>2.1</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>6.5</v>
-      </c>
-      <c r="M12">
-        <v>1.166</v>
-      </c>
       <c r="N12">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O12">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1539,34 +1539,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>0.925</v>
       </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB13">
         <v>0.95</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1.5</v>
-      </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6228554</v>
+        <v>6228553</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1764,76 +1764,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
         <v>4.5</v>
       </c>
       <c r="M15">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P15">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1841,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6228553</v>
+        <v>6228554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1853,76 +1853,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2387,10 +2387,10 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
         <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228565</v>
+        <v>6228021</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,55 +3099,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L30">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q30">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
         <v>1.9</v>
       </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
       <c r="T30">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3156,19 +3156,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228021</v>
+        <v>6228565</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,55 +3188,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M31">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
         <v>1.95</v>
       </c>
-      <c r="S31">
-        <v>1.9</v>
-      </c>
       <c r="T31">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3245,19 +3245,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3443,7 +3443,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6228568</v>
+        <v>6228022</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3455,67 +3455,67 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K34">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>1.181</v>
       </c>
       <c r="N34">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P34">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U34">
+        <v>1.975</v>
+      </c>
+      <c r="V34">
         <v>1.875</v>
       </c>
-      <c r="V34">
-        <v>1.975</v>
-      </c>
       <c r="W34">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3524,7 +3524,7 @@
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3532,7 +3532,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6228022</v>
+        <v>6228568</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3544,67 +3544,67 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="L35">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>1.181</v>
+        <v>5.5</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="O35">
+        <v>4.333</v>
+      </c>
+      <c r="P35">
         <v>5.75</v>
       </c>
-      <c r="P35">
-        <v>1.25</v>
-      </c>
       <c r="Q35">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U35">
+        <v>1.875</v>
+      </c>
+      <c r="V35">
         <v>1.975</v>
       </c>
-      <c r="V35">
-        <v>1.875</v>
-      </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X35">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3613,7 +3613,7 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228569</v>
+        <v>6228570</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,76 +3633,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="N36">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O36">
+        <v>5.5</v>
+      </c>
+      <c r="P36">
+        <v>1.285</v>
+      </c>
+      <c r="Q36">
+        <v>1.75</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
         <v>3.75</v>
       </c>
-      <c r="P36">
-        <v>3.6</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3.25</v>
-      </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228570</v>
+        <v>6228569</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,76 +3722,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>1.909</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.8</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>3.6</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.85</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
+        <v>1.9</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>2.6</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>1.181</v>
-      </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>1.285</v>
-      </c>
-      <c r="Q37">
-        <v>1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.925</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
-      <c r="X37">
-        <v>4.5</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3811,7 +3811,7 @@
         <v>45036.39583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3900,7 +3900,7 @@
         <v>45051.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -3992,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4612,7 +4612,7 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228025</v>
+        <v>6228579</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,73 +4701,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O48">
         <v>4.5</v>
       </c>
       <c r="P48">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q48">
+        <v>-0.5</v>
+      </c>
+      <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>3.75</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1.85</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>1.9</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.925</v>
+      </c>
+      <c r="AB48">
         <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>3.5</v>
-      </c>
-      <c r="U48">
-        <v>1.875</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
-      <c r="W48">
-        <v>3</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0.875</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6228579</v>
+        <v>6228025</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4790,73 +4790,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K49">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N49">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O49">
         <v>4.5</v>
       </c>
       <c r="P49">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4879,7 +4879,7 @@
         <v>45072.36458333334</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228583</v>
+        <v>6228582</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,55 +5057,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>3.75</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5114,19 +5114,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6228582</v>
+        <v>6228583</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5146,55 +5146,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5203,19 +5203,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
+        <v>1.025</v>
+      </c>
+      <c r="AB53">
+        <v>0.475</v>
+      </c>
+      <c r="AC53">
         <v>-0.5</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,76 +5413,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56">
+        <v>1.222</v>
+      </c>
+      <c r="L56">
+        <v>5.75</v>
+      </c>
+      <c r="M56">
+        <v>8</v>
+      </c>
+      <c r="N56">
+        <v>1.25</v>
+      </c>
+      <c r="O56">
+        <v>5.5</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>-1.75</v>
+      </c>
+      <c r="R56">
+        <v>1.875</v>
+      </c>
+      <c r="S56">
+        <v>1.975</v>
+      </c>
+      <c r="T56">
         <v>4</v>
       </c>
-      <c r="J56" t="s">
-        <v>40</v>
-      </c>
-      <c r="K56">
-        <v>3.4</v>
-      </c>
-      <c r="L56">
-        <v>4.1</v>
-      </c>
-      <c r="M56">
-        <v>1.727</v>
-      </c>
-      <c r="N56">
-        <v>4.5</v>
-      </c>
-      <c r="O56">
-        <v>4.5</v>
-      </c>
-      <c r="P56">
-        <v>1.533</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
-        <v>3.5</v>
-      </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,76 +5502,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57">
+        <v>3.4</v>
+      </c>
+      <c r="L57">
+        <v>4.1</v>
+      </c>
+      <c r="M57">
+        <v>1.727</v>
+      </c>
+      <c r="N57">
+        <v>4.5</v>
+      </c>
+      <c r="O57">
+        <v>4.5</v>
+      </c>
+      <c r="P57">
+        <v>1.533</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
+        <v>3.5</v>
+      </c>
+      <c r="U57">
+        <v>1.925</v>
+      </c>
+      <c r="V57">
+        <v>1.925</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57">
-        <v>1.222</v>
-      </c>
-      <c r="L57">
-        <v>5.75</v>
-      </c>
-      <c r="M57">
-        <v>8</v>
-      </c>
-      <c r="N57">
-        <v>1.25</v>
-      </c>
-      <c r="O57">
-        <v>5.5</v>
-      </c>
-      <c r="P57">
-        <v>7</v>
-      </c>
-      <c r="Q57">
-        <v>-1.75</v>
-      </c>
-      <c r="R57">
-        <v>1.875</v>
-      </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>4</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
-      <c r="V57">
-        <v>2.025</v>
-      </c>
-      <c r="W57">
-        <v>0.25</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0.875</v>
-      </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5579,7 +5579,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5591,76 +5591,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5668,7 +5668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5680,76 +5680,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.4</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N59">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5950,7 +5950,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6214,13 +6214,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6229,43 +6229,43 @@
         <v>38</v>
       </c>
       <c r="K65">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O65">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P65">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6274,16 +6274,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6291,7 +6291,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6303,13 +6303,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6318,43 +6318,43 @@
         <v>38</v>
       </c>
       <c r="K66">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N66">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O66">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6363,16 +6363,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6481,10 +6481,10 @@
         <v>45104.36458333334</v>
       </c>
       <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
         <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6929,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>34</v>
@@ -7537,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7549,76 +7549,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K80">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.875</v>
+      </c>
+      <c r="T80">
+        <v>3.5</v>
+      </c>
+      <c r="U80">
         <v>1.925</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.925</v>
       </c>
-      <c r="T80">
-        <v>4.25</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.875</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.925</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7638,76 +7638,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K81">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N81">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="N84">
+        <v>2.05</v>
+      </c>
+      <c r="O84">
         <v>4.5</v>
       </c>
-      <c r="M84">
-        <v>3.75</v>
-      </c>
-      <c r="N84">
-        <v>1.8</v>
-      </c>
-      <c r="O84">
-        <v>4.2</v>
-      </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB84">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
+        <v>3.75</v>
+      </c>
+      <c r="U85">
         <v>1.925</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="T85">
-        <v>4</v>
-      </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8350,7 +8350,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8439,10 +8439,10 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
         <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
       </c>
       <c r="H90">
         <v>6</v>
@@ -8798,7 +8798,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N95">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9228,7 +9228,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9240,56 +9240,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J99" t="s">
         <v>40</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
+        <v>4.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
         <v>1.85</v>
       </c>
-      <c r="T99">
-        <v>4</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9297,19 +9297,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9317,7 +9317,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9329,55 +9329,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>40</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>1.4</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>5.25</v>
+      </c>
+      <c r="P100">
+        <v>1.4</v>
+      </c>
+      <c r="Q100">
+        <v>1.25</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>2.55</v>
-      </c>
-      <c r="N100">
-        <v>2.15</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>2.8</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>4.5</v>
-      </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9386,19 +9386,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>45156.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9777,7 +9777,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9863,76 +9863,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
+        <v>5</v>
+      </c>
+      <c r="U106">
         <v>1.925</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.925</v>
       </c>
-      <c r="T106">
-        <v>4.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9952,76 +9952,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
+        <v>3.75</v>
+      </c>
+      <c r="M107">
+        <v>2.7</v>
+      </c>
+      <c r="N107">
+        <v>2.1</v>
+      </c>
+      <c r="O107">
         <v>4.2</v>
       </c>
-      <c r="M107">
-        <v>1.5</v>
-      </c>
-      <c r="N107">
-        <v>5</v>
-      </c>
-      <c r="O107">
-        <v>4.5</v>
-      </c>
       <c r="P107">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10029,7 +10029,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10041,58 +10041,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
       </c>
       <c r="K108">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
+        <v>6</v>
+      </c>
+      <c r="M108">
+        <v>9</v>
+      </c>
+      <c r="N108">
+        <v>1.181</v>
+      </c>
+      <c r="O108">
         <v>7</v>
       </c>
-      <c r="M108">
-        <v>10</v>
-      </c>
-      <c r="N108">
-        <v>1.125</v>
-      </c>
-      <c r="O108">
+      <c r="P108">
         <v>8.5</v>
       </c>
-      <c r="P108">
-        <v>13</v>
-      </c>
       <c r="Q108">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10101,16 +10101,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10118,7 +10118,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10130,58 +10130,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
       </c>
       <c r="K109">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M109">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q109">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.875</v>
+      </c>
+      <c r="T109">
+        <v>5</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
-      <c r="T109">
-        <v>5.25</v>
-      </c>
-      <c r="U109">
-        <v>1.9</v>
-      </c>
-      <c r="V109">
-        <v>1.95</v>
-      </c>
       <c r="W109">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10190,16 +10190,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Tampines Rovers FC</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Tampines Rovers FC</t>
   </si>
   <si>
     <t>Balestier Khalsa FC</t>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6228544</v>
+        <v>6228543</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -699,73 +699,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>1.1</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>17</v>
+      </c>
+      <c r="Q3">
+        <v>-2.75</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.95</v>
+      </c>
+      <c r="T3">
         <v>4.5</v>
       </c>
-      <c r="M3">
-        <v>3.3</v>
-      </c>
-      <c r="N3">
-        <v>1.65</v>
-      </c>
-      <c r="O3">
-        <v>4.5</v>
-      </c>
-      <c r="P3">
-        <v>3.5</v>
-      </c>
-      <c r="Q3">
-        <v>-0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.875</v>
-      </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
-      <c r="T3">
-        <v>3.5</v>
-      </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X3">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228543</v>
+        <v>6228544</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228547</v>
+        <v>6228016</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1052,76 +1052,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P7">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
         <v>1.95</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.9</v>
       </c>
-      <c r="T7">
-        <v>4.25</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228016</v>
+        <v>6228547</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,76 +1141,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
+        <v>4.75</v>
+      </c>
+      <c r="L8">
+        <v>4.75</v>
+      </c>
+      <c r="M8">
         <v>1.444</v>
       </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228550</v>
+        <v>6228017</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,40 +1408,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>2.1</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>6.5</v>
-      </c>
-      <c r="M11">
-        <v>1.166</v>
-      </c>
       <c r="N11">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1450,34 +1450,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>0.925</v>
       </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6228017</v>
+        <v>6228550</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1497,40 +1497,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1539,34 +1539,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.925</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>1.5</v>
-      </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB14">
         <v>0.95</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6228553</v>
+        <v>6228554</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1764,76 +1764,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
         <v>4.5</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1841,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6228554</v>
+        <v>6228553</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1853,76 +1853,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q16">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6228018</v>
+        <v>6228555</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1942,13 +1942,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1957,25 +1957,25 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
+        <v>4.8</v>
+      </c>
+      <c r="M17">
+        <v>4.8</v>
+      </c>
+      <c r="N17">
+        <v>1.444</v>
+      </c>
+      <c r="O17">
+        <v>4.75</v>
+      </c>
+      <c r="P17">
         <v>5</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.65</v>
-      </c>
-      <c r="O17">
-        <v>4.2</v>
-      </c>
-      <c r="P17">
-        <v>3.6</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
         <v>1.875</v>
@@ -1984,7 +1984,7 @@
         <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -1993,7 +1993,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228555</v>
+        <v>6228018</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,13 +2031,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2073,7 +2073,7 @@
         <v>1.975</v>
       </c>
       <c r="T18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2082,7 +2082,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228556</v>
+        <v>6228019</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,49 +2120,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>1.166</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.222</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U19">
         <v>1.85</v>
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228019</v>
+        <v>6228556</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,49 +2209,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="K20">
-        <v>1.166</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="N20">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U20">
         <v>1.85</v>
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2269,7 +2269,7 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228557</v>
+        <v>6228558</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,55 +2298,55 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2355,19 +2355,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.825</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.95</v>
-      </c>
-      <c r="AB21">
-        <v>0.925</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228558</v>
+        <v>6228557</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,55 +2387,55 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
+        <v>2.6</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>2.05</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>4.333</v>
-      </c>
-      <c r="P22">
-        <v>2.75</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228021</v>
+        <v>6228565</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,55 +3099,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="L30">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="S30">
-        <v>1.9</v>
-      </c>
       <c r="T30">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3156,19 +3156,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228565</v>
+        <v>6228021</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,55 +3188,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M31">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N31">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
         <v>1.9</v>
       </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
       <c r="T31">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3245,19 +3245,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228570</v>
+        <v>6228569</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,76 +3633,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>1.909</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.8</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>3.6</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>3.25</v>
+      </c>
+      <c r="U36">
+        <v>1.9</v>
+      </c>
+      <c r="V36">
+        <v>1.95</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>2.6</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36">
-        <v>6.5</v>
-      </c>
-      <c r="M36">
-        <v>1.181</v>
-      </c>
-      <c r="N36">
-        <v>7</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>1.285</v>
-      </c>
-      <c r="Q36">
-        <v>1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>4.5</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228569</v>
+        <v>6228570</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,76 +3722,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="N37">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O37">
+        <v>5.5</v>
+      </c>
+      <c r="P37">
+        <v>1.285</v>
+      </c>
+      <c r="Q37">
+        <v>1.75</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
         <v>3.75</v>
       </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
-      <c r="T37">
-        <v>3.25</v>
-      </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3811,7 +3811,7 @@
         <v>45036.39583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3900,7 +3900,7 @@
         <v>45051.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -3992,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6228574</v>
+        <v>6228023</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4078,46 +4078,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>5.5</v>
+      </c>
+      <c r="L41">
+        <v>4.5</v>
+      </c>
+      <c r="M41">
+        <v>1.4</v>
+      </c>
+      <c r="N41">
+        <v>4.5</v>
+      </c>
+      <c r="O41">
+        <v>4.2</v>
+      </c>
+      <c r="P41">
+        <v>1.533</v>
+      </c>
+      <c r="Q41">
         <v>1</v>
       </c>
-      <c r="J41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41">
-        <v>2.1</v>
-      </c>
-      <c r="L41">
-        <v>3.75</v>
-      </c>
-      <c r="M41">
-        <v>2.7</v>
-      </c>
-      <c r="N41">
-        <v>2.15</v>
-      </c>
-      <c r="O41">
-        <v>3.5</v>
-      </c>
-      <c r="P41">
-        <v>2.75</v>
-      </c>
-      <c r="Q41">
-        <v>-0.25</v>
-      </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>3.5</v>
@@ -4129,19 +4129,19 @@
         <v>1.925</v>
       </c>
       <c r="W41">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
         <v>-1</v>
@@ -4155,7 +4155,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6228023</v>
+        <v>6228574</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4167,46 +4167,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K42">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3.5</v>
@@ -4218,19 +4218,19 @@
         <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
         <v>-1</v>
@@ -4434,7 +4434,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4511,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6228578</v>
+        <v>6228577</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4523,58 +4523,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="K46">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>2.05</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>1.055</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P46">
-        <v>2.2</v>
+        <v>21</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4583,16 +4583,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228577</v>
+        <v>6228578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,58 +4612,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>1.062</v>
+        <v>2.8</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>2.05</v>
       </c>
       <c r="N47">
-        <v>1.055</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>21</v>
+        <v>2.2</v>
       </c>
       <c r="Q47">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>0.05499999999999994</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4672,16 +4672,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228579</v>
+        <v>6228025</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,73 +4701,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K48">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N48">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O48">
         <v>4.5</v>
       </c>
       <c r="P48">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6228025</v>
+        <v>6228579</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4790,73 +4790,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="J49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O49">
         <v>4.5</v>
       </c>
       <c r="P49">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
+        <v>3.75</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1.85</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
+        <v>1.9</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.925</v>
+      </c>
+      <c r="AB49">
         <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1.875</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>3.5</v>
-      </c>
-      <c r="U49">
-        <v>1.875</v>
-      </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
-      <c r="W49">
-        <v>3</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.875</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4879,7 +4879,7 @@
         <v>45072.36458333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228582</v>
+        <v>6228583</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,55 +5057,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
         <v>3.75</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5114,19 +5114,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
+        <v>1.025</v>
+      </c>
+      <c r="AB52">
+        <v>0.475</v>
+      </c>
+      <c r="AC52">
         <v>-0.5</v>
-      </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
-      <c r="AC52">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6228583</v>
+        <v>6228582</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5146,55 +5146,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5203,19 +5203,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA53">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,76 +5413,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <v>3.4</v>
+      </c>
+      <c r="L56">
+        <v>4.1</v>
+      </c>
+      <c r="M56">
+        <v>1.727</v>
+      </c>
+      <c r="N56">
+        <v>4.5</v>
+      </c>
+      <c r="O56">
+        <v>4.5</v>
+      </c>
+      <c r="P56">
+        <v>1.533</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.85</v>
+      </c>
+      <c r="T56">
+        <v>3.5</v>
+      </c>
+      <c r="U56">
+        <v>1.925</v>
+      </c>
+      <c r="V56">
+        <v>1.925</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56">
-        <v>1.222</v>
-      </c>
-      <c r="L56">
-        <v>5.75</v>
-      </c>
-      <c r="M56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1.25</v>
-      </c>
-      <c r="O56">
-        <v>5.5</v>
-      </c>
-      <c r="P56">
-        <v>7</v>
-      </c>
-      <c r="Q56">
-        <v>-1.75</v>
-      </c>
-      <c r="R56">
-        <v>1.875</v>
-      </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
-      <c r="T56">
-        <v>4</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
-      <c r="V56">
-        <v>2.025</v>
-      </c>
-      <c r="W56">
-        <v>0.25</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>0.875</v>
-      </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,76 +5502,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57">
+        <v>1.222</v>
+      </c>
+      <c r="L57">
+        <v>5.75</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57">
+        <v>1.25</v>
+      </c>
+      <c r="O57">
+        <v>5.5</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>-1.75</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="J57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K57">
-        <v>3.4</v>
-      </c>
-      <c r="L57">
-        <v>4.1</v>
-      </c>
-      <c r="M57">
-        <v>1.727</v>
-      </c>
-      <c r="N57">
-        <v>4.5</v>
-      </c>
-      <c r="O57">
-        <v>4.5</v>
-      </c>
-      <c r="P57">
-        <v>1.533</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5579,7 +5579,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5591,76 +5591,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>2.4</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N58">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5668,7 +5668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5680,76 +5680,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.4</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5935,7 +5935,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5947,76 +5947,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>2.3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>2.3</v>
+      </c>
+      <c r="N62">
+        <v>2.3</v>
+      </c>
+      <c r="O62">
+        <v>3.75</v>
+      </c>
+      <c r="P62">
+        <v>2.4</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62">
-        <v>7.5</v>
-      </c>
-      <c r="L62">
-        <v>5.5</v>
-      </c>
-      <c r="M62">
-        <v>1.25</v>
-      </c>
-      <c r="N62">
-        <v>10</v>
-      </c>
-      <c r="O62">
-        <v>6</v>
-      </c>
-      <c r="P62">
-        <v>1.181</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6024,7 +6024,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6036,76 +6036,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M63">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>1.181</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
         <v>3.75</v>
       </c>
-      <c r="P63">
-        <v>2.4</v>
-      </c>
-      <c r="Q63">
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>0.181</v>
+      </c>
+      <c r="Z63">
         <v>0</v>
       </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>4.25</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>1.3</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.875</v>
-      </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6202,7 +6202,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6214,13 +6214,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6229,43 +6229,43 @@
         <v>38</v>
       </c>
       <c r="K65">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O65">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6274,16 +6274,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6291,7 +6291,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6303,13 +6303,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6318,43 +6318,43 @@
         <v>38</v>
       </c>
       <c r="K66">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L66">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q66">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6363,16 +6363,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6481,10 +6481,10 @@
         <v>45104.36458333334</v>
       </c>
       <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
         <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6659,55 +6659,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M70">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N70">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O70">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P70">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6716,16 +6716,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6748,55 +6748,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M71">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O71">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P71">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6805,16 +6805,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6929,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>1.8</v>
+      </c>
+      <c r="N75">
+        <v>3.4</v>
+      </c>
+      <c r="O75">
         <v>4.2</v>
       </c>
-      <c r="M75">
-        <v>1.5</v>
-      </c>
-      <c r="N75">
-        <v>7.5</v>
-      </c>
-      <c r="O75">
-        <v>4.75</v>
-      </c>
       <c r="P75">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z75">
+        <v>-0.5</v>
+      </c>
+      <c r="AA75">
+        <v>0.5125</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>34</v>
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7727,40 +7727,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M82">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N82">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R82">
         <v>1.85</v>
@@ -7772,19 +7772,19 @@
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z82">
         <v>0.8500000000000001</v>
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7816,40 +7816,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N83">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O83">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.85</v>
@@ -7861,19 +7861,19 @@
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>0.8500000000000001</v>
@@ -7882,10 +7882,10 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8261,7 +8261,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8350,7 +8350,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>35</v>
@@ -8427,7 +8427,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8439,76 +8439,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
+        <v>2.25</v>
+      </c>
+      <c r="N90">
+        <v>2.45</v>
+      </c>
+      <c r="O90">
         <v>3.6</v>
       </c>
-      <c r="N90">
-        <v>1.5</v>
-      </c>
-      <c r="O90">
-        <v>3.8</v>
-      </c>
       <c r="P90">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8516,7 +8516,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8528,76 +8528,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8798,7 +8798,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>29</v>
@@ -9154,7 +9154,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9228,7 +9228,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9240,55 +9240,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>40</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>1.4</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>5.25</v>
+      </c>
+      <c r="P99">
+        <v>1.4</v>
+      </c>
+      <c r="Q99">
+        <v>1.25</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>2.55</v>
-      </c>
-      <c r="N99">
-        <v>2.15</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>2.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>4.5</v>
-      </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9297,19 +9297,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9317,7 +9317,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9329,56 +9329,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J100" t="s">
         <v>40</v>
       </c>
       <c r="K100">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q100">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>4.5</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
         <v>1.85</v>
       </c>
-      <c r="T100">
-        <v>4</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.875</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9386,19 +9386,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>45156.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9777,7 +9777,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9866,7 +9866,7 @@
         <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10130,7 +10130,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>37</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Tampines Rovers FC</t>
   </si>
   <si>
-    <t>Tampines Rovers FC</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>Balestier Khalsa FC</t>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6228543</v>
+        <v>6228544</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -699,73 +699,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228544</v>
+        <v>6228543</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>1.1</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>17</v>
+      </c>
+      <c r="Q4">
+        <v>-2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.95</v>
+      </c>
+      <c r="T4">
         <v>4.5</v>
       </c>
-      <c r="M4">
-        <v>3.3</v>
-      </c>
-      <c r="N4">
-        <v>1.65</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>3.5</v>
-      </c>
-      <c r="Q4">
-        <v>-0.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X4">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228017</v>
+        <v>6228550</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,40 +1408,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N11">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1450,34 +1450,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.925</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6228550</v>
+        <v>6228017</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1497,40 +1497,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>2.1</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>6.5</v>
-      </c>
-      <c r="M12">
-        <v>1.166</v>
-      </c>
       <c r="N12">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O12">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1539,34 +1539,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>0.925</v>
       </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB13">
         <v>0.95</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1.5</v>
-      </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1767,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228019</v>
+        <v>6228556</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,49 +2120,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>1.166</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="N19">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O19">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U19">
         <v>1.85</v>
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228556</v>
+        <v>6228019</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,49 +2209,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>1.166</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>1.222</v>
+        <v>11</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P20">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U20">
         <v>1.85</v>
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2269,7 +2269,7 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2298,10 +2298,10 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228559</v>
+        <v>6228020</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,76 +2476,76 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O23">
+        <v>4.333</v>
+      </c>
+      <c r="P23">
+        <v>3.4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
         <v>3.75</v>
       </c>
-      <c r="P23">
-        <v>2.375</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="U23">
         <v>1.925</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.925</v>
       </c>
-      <c r="T23">
-        <v>3.5</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.925</v>
       </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2553,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6228020</v>
+        <v>6228559</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2565,76 +2565,76 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24">
+        <v>2.75</v>
+      </c>
+      <c r="N24">
         <v>2.375</v>
       </c>
-      <c r="N24">
-        <v>1.833</v>
-      </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2642,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6228561</v>
+        <v>6228560</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2654,76 +2654,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>1.363</v>
+      </c>
+      <c r="L25">
+        <v>4.75</v>
+      </c>
+      <c r="M25">
+        <v>5.75</v>
+      </c>
+      <c r="N25">
+        <v>1.4</v>
+      </c>
+      <c r="O25">
+        <v>4.333</v>
+      </c>
+      <c r="P25">
         <v>6</v>
       </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25">
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>1.875</v>
+      </c>
+      <c r="T25">
         <v>3.75</v>
       </c>
-      <c r="L25">
-        <v>4.2</v>
-      </c>
-      <c r="M25">
-        <v>1.65</v>
-      </c>
-      <c r="N25">
-        <v>3.8</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>1.666</v>
-      </c>
-      <c r="Q25">
-        <v>0.75</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
-      </c>
-      <c r="T25">
-        <v>3.5</v>
-      </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB25">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228560</v>
+        <v>6228561</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,76 +2743,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N26">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q26">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228569</v>
+        <v>6228570</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,76 +3633,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="N36">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O36">
+        <v>5.5</v>
+      </c>
+      <c r="P36">
+        <v>1.285</v>
+      </c>
+      <c r="Q36">
+        <v>1.75</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
         <v>3.75</v>
       </c>
-      <c r="P36">
-        <v>3.6</v>
-      </c>
-      <c r="Q36">
-        <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.85</v>
-      </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3.25</v>
-      </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228570</v>
+        <v>6228569</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,76 +3722,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>1.909</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.8</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>3.6</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.85</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>3.25</v>
+      </c>
+      <c r="U37">
+        <v>1.9</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>2.6</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
-      <c r="L37">
-        <v>6.5</v>
-      </c>
-      <c r="M37">
-        <v>1.181</v>
-      </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>1.285</v>
-      </c>
-      <c r="Q37">
-        <v>1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.925</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
-      <c r="X37">
-        <v>4.5</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3811,7 +3811,7 @@
         <v>45036.39583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3900,7 +3900,7 @@
         <v>45051.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -3992,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6228023</v>
+        <v>6228574</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4078,46 +4078,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K41">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N41">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3.5</v>
@@ -4129,19 +4129,19 @@
         <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>-1</v>
@@ -4155,7 +4155,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6228574</v>
+        <v>6228023</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4167,46 +4167,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>5.5</v>
+      </c>
+      <c r="L42">
+        <v>4.5</v>
+      </c>
+      <c r="M42">
+        <v>1.4</v>
+      </c>
+      <c r="N42">
+        <v>4.5</v>
+      </c>
+      <c r="O42">
+        <v>4.2</v>
+      </c>
+      <c r="P42">
+        <v>1.533</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
-      <c r="J42" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>2.1</v>
-      </c>
-      <c r="L42">
-        <v>3.75</v>
-      </c>
-      <c r="M42">
-        <v>2.7</v>
-      </c>
-      <c r="N42">
-        <v>2.15</v>
-      </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>2.75</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3.5</v>
@@ -4218,19 +4218,19 @@
         <v>1.925</v>
       </c>
       <c r="W42">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
         <v>-1</v>
@@ -4434,7 +4434,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4511,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6228577</v>
+        <v>6228578</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4523,58 +4523,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="K46">
-        <v>1.062</v>
+        <v>2.8</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>2.05</v>
       </c>
       <c r="N46">
-        <v>1.055</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>21</v>
+        <v>2.2</v>
       </c>
       <c r="Q46">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.05499999999999994</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4583,16 +4583,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228578</v>
+        <v>6228577</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,58 +4612,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M47">
-        <v>2.05</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>1.055</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P47">
-        <v>2.2</v>
+        <v>21</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4672,16 +4672,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4879,7 +4879,7 @@
         <v>45072.36458333334</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228583</v>
+        <v>6228582</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,55 +5057,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>3.75</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5114,19 +5114,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6228582</v>
+        <v>6228583</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5146,55 +5146,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5203,19 +5203,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
+        <v>1.025</v>
+      </c>
+      <c r="AB53">
+        <v>0.475</v>
+      </c>
+      <c r="AC53">
         <v>-0.5</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5579,7 +5579,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5591,76 +5591,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5668,7 +5668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5680,76 +5680,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.4</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N59">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5935,7 +5935,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5947,76 +5947,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M62">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62">
+        <v>1.181</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>1.9</v>
+      </c>
+      <c r="T62">
         <v>3.75</v>
       </c>
-      <c r="P62">
-        <v>2.4</v>
-      </c>
-      <c r="Q62">
+      <c r="U62">
+        <v>1.925</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>0.181</v>
+      </c>
+      <c r="Z62">
         <v>0</v>
       </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.975</v>
-      </c>
-      <c r="T62">
-        <v>4.25</v>
-      </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
-      <c r="W62">
-        <v>1.3</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.875</v>
-      </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6024,7 +6024,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6036,76 +6036,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>2.3</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>2.3</v>
+      </c>
+      <c r="N63">
+        <v>2.3</v>
+      </c>
+      <c r="O63">
+        <v>3.75</v>
+      </c>
+      <c r="P63">
+        <v>2.4</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63">
-        <v>7.5</v>
-      </c>
-      <c r="L63">
-        <v>5.5</v>
-      </c>
-      <c r="M63">
-        <v>1.25</v>
-      </c>
-      <c r="N63">
-        <v>10</v>
-      </c>
-      <c r="O63">
-        <v>6</v>
-      </c>
-      <c r="P63">
-        <v>1.181</v>
-      </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6481,10 +6481,10 @@
         <v>45104.36458333334</v>
       </c>
       <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
         <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6929,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1.8</v>
+      </c>
+      <c r="N74">
+        <v>3.4</v>
+      </c>
+      <c r="O74">
         <v>4.2</v>
       </c>
-      <c r="M74">
-        <v>1.5</v>
-      </c>
-      <c r="N74">
-        <v>7.5</v>
-      </c>
-      <c r="O74">
-        <v>4.75</v>
-      </c>
       <c r="P74">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z74">
+        <v>-0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0.5125</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M75">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>34</v>
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7727,40 +7727,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M82">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N82">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O82">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
         <v>1.85</v>
@@ -7772,19 +7772,19 @@
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>0.8500000000000001</v>
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7816,40 +7816,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M83">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N83">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R83">
         <v>1.85</v>
@@ -7861,19 +7861,19 @@
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z83">
         <v>0.8500000000000001</v>
@@ -7882,10 +7882,10 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8249,7 +8249,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,70 +8264,70 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K88">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L88">
+        <v>11</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>1.055</v>
+      </c>
+      <c r="O88">
+        <v>11</v>
+      </c>
+      <c r="P88">
+        <v>17</v>
+      </c>
+      <c r="Q88">
+        <v>-3.25</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
         <v>4.5</v>
       </c>
-      <c r="M88">
-        <v>7</v>
-      </c>
-      <c r="N88">
-        <v>1.25</v>
-      </c>
-      <c r="O88">
-        <v>5.5</v>
-      </c>
-      <c r="P88">
-        <v>8</v>
-      </c>
-      <c r="Q88">
-        <v>-1.75</v>
-      </c>
-      <c r="R88">
-        <v>1.9</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
-      </c>
-      <c r="T88">
-        <v>3.75</v>
-      </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8338,7 +8338,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,70 +8353,70 @@
         <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N89">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O89">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P89">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q89">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>3.75</v>
+      </c>
+      <c r="U89">
         <v>1.925</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.925</v>
       </c>
-      <c r="T89">
-        <v>4.5</v>
-      </c>
-      <c r="U89">
-        <v>1.85</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.95</v>
+      </c>
+      <c r="AB89">
         <v>0.925</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8528,10 +8528,10 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
         <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
       </c>
       <c r="H91">
         <v>6</v>
@@ -8798,7 +8798,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9228,7 +9228,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9240,56 +9240,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J99" t="s">
         <v>40</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
+        <v>4.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
         <v>1.85</v>
       </c>
-      <c r="T99">
-        <v>4</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9297,19 +9297,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9317,7 +9317,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9329,55 +9329,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>40</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>1.4</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>5.25</v>
+      </c>
+      <c r="P100">
+        <v>1.4</v>
+      </c>
+      <c r="Q100">
+        <v>1.25</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>2.55</v>
-      </c>
-      <c r="N100">
-        <v>2.15</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>2.8</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>4.5</v>
-      </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9386,19 +9386,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>45156.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9584,7 +9584,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9596,40 +9596,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N103">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R103">
         <v>1.975</v>
@@ -9638,34 +9638,34 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X103">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9673,7 +9673,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9685,40 +9685,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K104">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M104">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O104">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9727,34 +9727,34 @@
         <v>1.875</v>
       </c>
       <c r="T104">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9863,76 +9863,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>2.7</v>
+      </c>
+      <c r="N106">
+        <v>2.1</v>
+      </c>
+      <c r="O106">
         <v>4.2</v>
       </c>
-      <c r="M106">
-        <v>1.5</v>
-      </c>
-      <c r="N106">
-        <v>5</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
-      </c>
       <c r="P106">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9952,76 +9952,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>5</v>
+      </c>
+      <c r="U107">
         <v>1.925</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.925</v>
       </c>
-      <c r="T107">
-        <v>4.25</v>
-      </c>
-      <c r="U107">
-        <v>1.9</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10029,7 +10029,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10041,58 +10041,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
       </c>
       <c r="K108">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P108">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q108">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>5</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
-      <c r="T108">
-        <v>5.25</v>
-      </c>
-      <c r="U108">
-        <v>1.9</v>
-      </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
       <c r="W108">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10101,16 +10101,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10118,7 +10118,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10130,58 +10130,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>9</v>
+      </c>
+      <c r="N109">
+        <v>1.181</v>
+      </c>
+      <c r="O109">
         <v>7</v>
       </c>
-      <c r="M109">
-        <v>10</v>
-      </c>
-      <c r="N109">
-        <v>1.125</v>
-      </c>
-      <c r="O109">
+      <c r="P109">
         <v>8.5</v>
       </c>
-      <c r="P109">
-        <v>13</v>
-      </c>
       <c r="Q109">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10190,16 +10190,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228016</v>
+        <v>6228547</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1052,76 +1052,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
+        <v>4.75</v>
+      </c>
+      <c r="L7">
+        <v>4.75</v>
+      </c>
+      <c r="M7">
         <v>1.444</v>
       </c>
-      <c r="L7">
-        <v>4.5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
       <c r="N7">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228547</v>
+        <v>6228016</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,76 +1141,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="L8">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.825</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.75</v>
+      </c>
+      <c r="U8">
         <v>1.95</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.9</v>
       </c>
-      <c r="T8">
-        <v>4.25</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>1.5</v>
-      </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB14">
         <v>0.95</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6228555</v>
+        <v>6228018</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1942,13 +1942,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1957,25 +1957,25 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
         <v>1.875</v>
@@ -1984,7 +1984,7 @@
         <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -1993,7 +1993,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228018</v>
+        <v>6228555</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,13 +2031,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L18">
+        <v>4.8</v>
+      </c>
+      <c r="M18">
+        <v>4.8</v>
+      </c>
+      <c r="N18">
+        <v>1.444</v>
+      </c>
+      <c r="O18">
+        <v>4.75</v>
+      </c>
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.65</v>
-      </c>
-      <c r="O18">
-        <v>4.2</v>
-      </c>
-      <c r="P18">
-        <v>3.6</v>
-      </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2073,7 +2073,7 @@
         <v>1.975</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2082,7 +2082,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228558</v>
+        <v>6228557</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,55 +2298,55 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>2.05</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="O21">
-        <v>4.333</v>
-      </c>
-      <c r="P21">
-        <v>2.75</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>2.025</v>
-      </c>
-      <c r="S21">
-        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2355,19 +2355,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228557</v>
+        <v>6228558</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,55 +2387,55 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
       <c r="K22">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L22">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M22">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P22">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
+        <v>0.825</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.95</v>
-      </c>
-      <c r="AB22">
-        <v>0.925</v>
-      </c>
-      <c r="AC22">
-        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228020</v>
+        <v>6228559</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,76 +2476,76 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23">
+        <v>2.75</v>
+      </c>
+      <c r="N23">
         <v>2.375</v>
       </c>
-      <c r="N23">
-        <v>1.833</v>
-      </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2553,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6228559</v>
+        <v>6228020</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2565,76 +2565,76 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O24">
+        <v>4.333</v>
+      </c>
+      <c r="P24">
+        <v>3.4</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
         <v>3.75</v>
       </c>
-      <c r="P24">
-        <v>2.375</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="T24">
-        <v>3.5</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
-        <v>1.9</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>0.925</v>
       </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2642,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6228560</v>
+        <v>6228561</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2654,76 +2654,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L25">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M25">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N25">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U25">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC25">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228561</v>
+        <v>6228560</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,76 +2743,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>1.363</v>
+      </c>
+      <c r="L26">
+        <v>4.75</v>
+      </c>
+      <c r="M26">
+        <v>5.75</v>
+      </c>
+      <c r="N26">
+        <v>1.4</v>
+      </c>
+      <c r="O26">
+        <v>4.333</v>
+      </c>
+      <c r="P26">
         <v>6</v>
       </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26">
+      <c r="Q26">
+        <v>-1.25</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.875</v>
+      </c>
+      <c r="T26">
         <v>3.75</v>
       </c>
-      <c r="L26">
-        <v>4.2</v>
-      </c>
-      <c r="M26">
-        <v>1.65</v>
-      </c>
-      <c r="N26">
-        <v>3.8</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>1.666</v>
-      </c>
-      <c r="Q26">
-        <v>0.75</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>3.5</v>
-      </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -4066,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6228574</v>
+        <v>6228023</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4078,46 +4078,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>5.5</v>
+      </c>
+      <c r="L41">
+        <v>4.5</v>
+      </c>
+      <c r="M41">
+        <v>1.4</v>
+      </c>
+      <c r="N41">
+        <v>4.5</v>
+      </c>
+      <c r="O41">
+        <v>4.2</v>
+      </c>
+      <c r="P41">
+        <v>1.533</v>
+      </c>
+      <c r="Q41">
         <v>1</v>
       </c>
-      <c r="J41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41">
-        <v>2.1</v>
-      </c>
-      <c r="L41">
-        <v>3.75</v>
-      </c>
-      <c r="M41">
-        <v>2.7</v>
-      </c>
-      <c r="N41">
-        <v>2.15</v>
-      </c>
-      <c r="O41">
-        <v>3.5</v>
-      </c>
-      <c r="P41">
-        <v>2.75</v>
-      </c>
-      <c r="Q41">
-        <v>-0.25</v>
-      </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
         <v>3.5</v>
@@ -4129,19 +4129,19 @@
         <v>1.925</v>
       </c>
       <c r="W41">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
         <v>-1</v>
@@ -4155,7 +4155,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6228023</v>
+        <v>6228574</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4167,46 +4167,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K42">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3.5</v>
@@ -4218,19 +4218,19 @@
         <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
         <v>-1</v>
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228025</v>
+        <v>6228579</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,73 +4701,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O48">
         <v>4.5</v>
       </c>
       <c r="P48">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q48">
+        <v>-0.5</v>
+      </c>
+      <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>3.75</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1.85</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>1.9</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.925</v>
+      </c>
+      <c r="AB48">
         <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>3.5</v>
-      </c>
-      <c r="U48">
-        <v>1.875</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
-      <c r="W48">
-        <v>3</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0.875</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6228579</v>
+        <v>6228025</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4790,73 +4790,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K49">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N49">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O49">
         <v>4.5</v>
       </c>
       <c r="P49">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5579,7 +5579,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5591,76 +5591,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>2.4</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N58">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5668,7 +5668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5680,76 +5680,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.4</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N59">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5935,7 +5935,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5947,76 +5947,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>2.3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>2.3</v>
+      </c>
+      <c r="N62">
+        <v>2.3</v>
+      </c>
+      <c r="O62">
+        <v>3.75</v>
+      </c>
+      <c r="P62">
+        <v>2.4</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62">
-        <v>7.5</v>
-      </c>
-      <c r="L62">
-        <v>5.5</v>
-      </c>
-      <c r="M62">
-        <v>1.25</v>
-      </c>
-      <c r="N62">
-        <v>10</v>
-      </c>
-      <c r="O62">
-        <v>6</v>
-      </c>
-      <c r="P62">
-        <v>1.181</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6024,7 +6024,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6036,76 +6036,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M63">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>1.181</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
         <v>3.75</v>
       </c>
-      <c r="P63">
-        <v>2.4</v>
-      </c>
-      <c r="Q63">
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>0.181</v>
+      </c>
+      <c r="Z63">
         <v>0</v>
       </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>4.25</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>1.3</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.875</v>
-      </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6202,7 +6202,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6214,13 +6214,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6229,43 +6229,43 @@
         <v>38</v>
       </c>
       <c r="K65">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O65">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P65">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q65">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6274,16 +6274,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6291,7 +6291,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6303,13 +6303,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6318,43 +6318,43 @@
         <v>38</v>
       </c>
       <c r="K66">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N66">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O66">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P66">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6363,16 +6363,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6647,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6659,55 +6659,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L70">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M70">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O70">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P70">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6716,16 +6716,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6748,55 +6748,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
       </c>
       <c r="K71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L71">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M71">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O71">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P71">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6805,16 +6805,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>1.8</v>
+      </c>
+      <c r="N75">
+        <v>3.4</v>
+      </c>
+      <c r="O75">
         <v>4.2</v>
       </c>
-      <c r="M75">
-        <v>1.5</v>
-      </c>
-      <c r="N75">
-        <v>7.5</v>
-      </c>
-      <c r="O75">
-        <v>4.75</v>
-      </c>
       <c r="P75">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z75">
+        <v>-0.5</v>
+      </c>
+      <c r="AA75">
+        <v>0.5125</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7359,7 +7359,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7371,19 +7371,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K78">
         <v>1.2</v>
@@ -7395,52 +7395,52 @@
         <v>9</v>
       </c>
       <c r="N78">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O78">
         <v>7.5</v>
       </c>
       <c r="P78">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q78">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7448,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7460,19 +7460,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K79">
         <v>1.2</v>
@@ -7484,52 +7484,52 @@
         <v>9</v>
       </c>
       <c r="N79">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O79">
         <v>7.5</v>
       </c>
       <c r="P79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q79">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7537,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7549,76 +7549,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K80">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7638,76 +7638,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L81">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.875</v>
+      </c>
+      <c r="T81">
+        <v>3.5</v>
+      </c>
+      <c r="U81">
         <v>1.925</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>4.25</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>0.875</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7727,40 +7727,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M82">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N82">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R82">
         <v>1.85</v>
@@ -7772,19 +7772,19 @@
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z82">
         <v>0.8500000000000001</v>
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7816,40 +7816,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N83">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O83">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.85</v>
@@ -7861,19 +7861,19 @@
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>0.8500000000000001</v>
@@ -7882,10 +7882,10 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>3.75</v>
+      </c>
+      <c r="U84">
         <v>1.925</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.925</v>
       </c>
-      <c r="T84">
-        <v>4</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
       <c r="J85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>2.6</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
         <v>4.5</v>
       </c>
-      <c r="M85">
-        <v>3.75</v>
-      </c>
-      <c r="N85">
-        <v>1.8</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8249,7 +8249,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8261,73 +8261,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K88">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L88">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N88">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O88">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P88">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q88">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>3.75</v>
+      </c>
+      <c r="U88">
         <v>1.925</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>1.925</v>
       </c>
-      <c r="T88">
-        <v>4.5</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>2</v>
-      </c>
       <c r="W88">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.95</v>
+      </c>
+      <c r="AB88">
         <v>0.925</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8338,7 +8338,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8350,73 +8350,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K89">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L89">
+        <v>11</v>
+      </c>
+      <c r="M89">
+        <v>17</v>
+      </c>
+      <c r="N89">
+        <v>1.055</v>
+      </c>
+      <c r="O89">
+        <v>11</v>
+      </c>
+      <c r="P89">
+        <v>17</v>
+      </c>
+      <c r="Q89">
+        <v>-3.25</v>
+      </c>
+      <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.925</v>
+      </c>
+      <c r="T89">
         <v>4.5</v>
       </c>
-      <c r="M89">
-        <v>7</v>
-      </c>
-      <c r="N89">
-        <v>1.25</v>
-      </c>
-      <c r="O89">
-        <v>5.5</v>
-      </c>
-      <c r="P89">
-        <v>8</v>
-      </c>
-      <c r="Q89">
-        <v>-1.75</v>
-      </c>
-      <c r="R89">
-        <v>1.9</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>3.75</v>
-      </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -9584,7 +9584,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9596,40 +9596,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K103">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M103">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O103">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q103">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
         <v>1.975</v>
@@ -9638,34 +9638,34 @@
         <v>1.875</v>
       </c>
       <c r="T103">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9673,7 +9673,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9685,40 +9685,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L104">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M104">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N104">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9727,34 +9727,34 @@
         <v>1.875</v>
       </c>
       <c r="T104">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9863,76 +9863,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N106">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1.85</v>
+      </c>
+      <c r="T106">
+        <v>5</v>
+      </c>
+      <c r="U106">
         <v>1.925</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.925</v>
       </c>
-      <c r="T106">
-        <v>4.25</v>
-      </c>
-      <c r="U106">
-        <v>1.9</v>
-      </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9952,76 +9952,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
+        <v>3.75</v>
+      </c>
+      <c r="M107">
+        <v>2.7</v>
+      </c>
+      <c r="N107">
+        <v>2.1</v>
+      </c>
+      <c r="O107">
         <v>4.2</v>
       </c>
-      <c r="M107">
-        <v>1.5</v>
-      </c>
-      <c r="N107">
-        <v>5</v>
-      </c>
-      <c r="O107">
-        <v>4.5</v>
-      </c>
       <c r="P107">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q107">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10029,7 +10029,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10041,58 +10041,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
       </c>
       <c r="K108">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L108">
+        <v>6</v>
+      </c>
+      <c r="M108">
+        <v>9</v>
+      </c>
+      <c r="N108">
+        <v>1.181</v>
+      </c>
+      <c r="O108">
         <v>7</v>
       </c>
-      <c r="M108">
-        <v>10</v>
-      </c>
-      <c r="N108">
-        <v>1.125</v>
-      </c>
-      <c r="O108">
+      <c r="P108">
         <v>8.5</v>
       </c>
-      <c r="P108">
-        <v>13</v>
-      </c>
       <c r="Q108">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10101,16 +10101,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10118,7 +10118,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10130,58 +10130,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
       </c>
       <c r="K109">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M109">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N109">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O109">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P109">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q109">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
+        <v>1.875</v>
+      </c>
+      <c r="T109">
+        <v>5</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
         <v>1.85</v>
       </c>
-      <c r="S109">
-        <v>2</v>
-      </c>
-      <c r="T109">
-        <v>5.25</v>
-      </c>
-      <c r="U109">
-        <v>1.9</v>
-      </c>
-      <c r="V109">
-        <v>1.95</v>
-      </c>
       <c r="W109">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10190,16 +10190,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N13">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB13">
         <v>0.95</v>
       </c>
-      <c r="AA13">
-        <v>-1</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1.5</v>
-      </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O14">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6228018</v>
+        <v>6228555</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1942,13 +1942,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1957,25 +1957,25 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
+        <v>4.8</v>
+      </c>
+      <c r="M17">
+        <v>4.8</v>
+      </c>
+      <c r="N17">
+        <v>1.444</v>
+      </c>
+      <c r="O17">
+        <v>4.75</v>
+      </c>
+      <c r="P17">
         <v>5</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.65</v>
-      </c>
-      <c r="O17">
-        <v>4.2</v>
-      </c>
-      <c r="P17">
-        <v>3.6</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
         <v>1.875</v>
@@ -1984,7 +1984,7 @@
         <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -1993,7 +1993,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228555</v>
+        <v>6228018</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,13 +2031,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2073,7 +2073,7 @@
         <v>1.975</v>
       </c>
       <c r="T18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2082,7 +2082,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228565</v>
+        <v>6228021</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,55 +3099,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L30">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q30">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
+        <v>1.95</v>
+      </c>
+      <c r="S30">
         <v>1.9</v>
       </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
       <c r="T30">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U30">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3156,19 +3156,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228021</v>
+        <v>6228565</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,55 +3188,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M31">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P31">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
         <v>1.95</v>
       </c>
-      <c r="S31">
-        <v>1.9</v>
-      </c>
       <c r="T31">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3245,19 +3245,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4511,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6228578</v>
+        <v>6228577</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4523,58 +4523,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="K46">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>2.05</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>1.055</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P46">
-        <v>2.2</v>
+        <v>21</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.8</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4583,16 +4583,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228577</v>
+        <v>6228578</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,58 +4612,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>1.062</v>
+        <v>2.8</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>2.05</v>
       </c>
       <c r="N47">
-        <v>1.055</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>21</v>
+        <v>2.2</v>
       </c>
       <c r="Q47">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>0.05499999999999994</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4672,16 +4672,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,76 +5413,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56">
+        <v>1.222</v>
+      </c>
+      <c r="L56">
+        <v>5.75</v>
+      </c>
+      <c r="M56">
+        <v>8</v>
+      </c>
+      <c r="N56">
+        <v>1.25</v>
+      </c>
+      <c r="O56">
+        <v>5.5</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="Q56">
+        <v>-1.75</v>
+      </c>
+      <c r="R56">
+        <v>1.875</v>
+      </c>
+      <c r="S56">
+        <v>1.975</v>
+      </c>
+      <c r="T56">
         <v>4</v>
       </c>
-      <c r="J56" t="s">
-        <v>40</v>
-      </c>
-      <c r="K56">
-        <v>3.4</v>
-      </c>
-      <c r="L56">
-        <v>4.1</v>
-      </c>
-      <c r="M56">
-        <v>1.727</v>
-      </c>
-      <c r="N56">
-        <v>4.5</v>
-      </c>
-      <c r="O56">
-        <v>4.5</v>
-      </c>
-      <c r="P56">
-        <v>1.533</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
-        <v>3.5</v>
-      </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,76 +5502,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57">
+        <v>3.4</v>
+      </c>
+      <c r="L57">
+        <v>4.1</v>
+      </c>
+      <c r="M57">
+        <v>1.727</v>
+      </c>
+      <c r="N57">
+        <v>4.5</v>
+      </c>
+      <c r="O57">
+        <v>4.5</v>
+      </c>
+      <c r="P57">
+        <v>1.533</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1.85</v>
+      </c>
+      <c r="T57">
+        <v>3.5</v>
+      </c>
+      <c r="U57">
+        <v>1.925</v>
+      </c>
+      <c r="V57">
+        <v>1.925</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>-1</v>
+      </c>
+      <c r="Y57">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z57">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57">
-        <v>1.222</v>
-      </c>
-      <c r="L57">
-        <v>5.75</v>
-      </c>
-      <c r="M57">
-        <v>8</v>
-      </c>
-      <c r="N57">
-        <v>1.25</v>
-      </c>
-      <c r="O57">
-        <v>5.5</v>
-      </c>
-      <c r="P57">
-        <v>7</v>
-      </c>
-      <c r="Q57">
-        <v>-1.75</v>
-      </c>
-      <c r="R57">
-        <v>1.875</v>
-      </c>
-      <c r="S57">
-        <v>1.975</v>
-      </c>
-      <c r="T57">
-        <v>4</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
-      <c r="V57">
-        <v>2.025</v>
-      </c>
-      <c r="W57">
-        <v>0.25</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0.875</v>
-      </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5579,7 +5579,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5591,76 +5591,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>2.4</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N58">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P58">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y58">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5668,7 +5668,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5680,76 +5680,76 @@
         <v>45084.36458333334</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.4</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N59">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5935,7 +5935,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5947,76 +5947,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M62">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="P62">
+        <v>1.181</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>1.9</v>
+      </c>
+      <c r="T62">
         <v>3.75</v>
       </c>
-      <c r="P62">
-        <v>2.4</v>
-      </c>
-      <c r="Q62">
+      <c r="U62">
+        <v>1.925</v>
+      </c>
+      <c r="V62">
+        <v>1.925</v>
+      </c>
+      <c r="W62">
+        <v>-1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>0.181</v>
+      </c>
+      <c r="Z62">
         <v>0</v>
       </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.975</v>
-      </c>
-      <c r="T62">
-        <v>4.25</v>
-      </c>
-      <c r="U62">
-        <v>1.875</v>
-      </c>
-      <c r="V62">
-        <v>1.975</v>
-      </c>
-      <c r="W62">
-        <v>1.3</v>
-      </c>
-      <c r="X62">
-        <v>-1</v>
-      </c>
-      <c r="Y62">
-        <v>-1</v>
-      </c>
-      <c r="Z62">
-        <v>0.875</v>
-      </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6024,7 +6024,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6036,76 +6036,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63">
+        <v>2.3</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>2.3</v>
+      </c>
+      <c r="N63">
+        <v>2.3</v>
+      </c>
+      <c r="O63">
+        <v>3.75</v>
+      </c>
+      <c r="P63">
+        <v>2.4</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63">
-        <v>7.5</v>
-      </c>
-      <c r="L63">
-        <v>5.5</v>
-      </c>
-      <c r="M63">
-        <v>1.25</v>
-      </c>
-      <c r="N63">
-        <v>10</v>
-      </c>
-      <c r="O63">
-        <v>6</v>
-      </c>
-      <c r="P63">
-        <v>1.181</v>
-      </c>
-      <c r="Q63">
-        <v>2</v>
-      </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6647,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6659,55 +6659,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M70">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N70">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O70">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P70">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V70">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6716,16 +6716,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6748,55 +6748,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M71">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O71">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P71">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6805,16 +6805,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6825,7 +6825,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6837,76 +6837,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="S72">
-        <v>2.025</v>
-      </c>
-      <c r="T72">
-        <v>4</v>
-      </c>
-      <c r="U72">
-        <v>1.95</v>
-      </c>
-      <c r="V72">
-        <v>1.9</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6914,7 +6914,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6926,76 +6926,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
+        <v>2.5</v>
+      </c>
+      <c r="L73">
         <v>3.6</v>
       </c>
-      <c r="L73">
-        <v>4.2</v>
-      </c>
       <c r="M73">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.75</v>
+      </c>
+      <c r="P73">
+        <v>2.2</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
         <v>4</v>
       </c>
-      <c r="O73">
-        <v>4.5</v>
-      </c>
-      <c r="P73">
-        <v>1.55</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>3.25</v>
-      </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1.8</v>
+      </c>
+      <c r="N74">
+        <v>3.4</v>
+      </c>
+      <c r="O74">
         <v>4.2</v>
       </c>
-      <c r="M74">
-        <v>1.5</v>
-      </c>
-      <c r="N74">
-        <v>7.5</v>
-      </c>
-      <c r="O74">
-        <v>4.75</v>
-      </c>
       <c r="P74">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z74">
+        <v>-0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0.5125</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M75">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7359,7 +7359,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7371,19 +7371,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>1.2</v>
@@ -7395,52 +7395,52 @@
         <v>9</v>
       </c>
       <c r="N78">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O78">
         <v>7.5</v>
       </c>
       <c r="P78">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q78">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7448,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7460,19 +7460,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K79">
         <v>1.2</v>
@@ -7484,52 +7484,52 @@
         <v>9</v>
       </c>
       <c r="N79">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O79">
         <v>7.5</v>
       </c>
       <c r="P79">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q79">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7537,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7549,76 +7549,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K80">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L80">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.875</v>
+      </c>
+      <c r="T80">
+        <v>3.5</v>
+      </c>
+      <c r="U80">
         <v>1.925</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.925</v>
       </c>
-      <c r="T80">
-        <v>4.25</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.875</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.925</v>
-      </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7638,76 +7638,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K81">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L81">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N81">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7727,40 +7727,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M82">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N82">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O82">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
         <v>1.85</v>
@@ -7772,19 +7772,19 @@
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>0.8500000000000001</v>
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7816,40 +7816,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M83">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N83">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R83">
         <v>1.85</v>
@@ -7861,19 +7861,19 @@
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z83">
         <v>0.8500000000000001</v>
@@ -7882,10 +7882,10 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="N84">
+        <v>2.05</v>
+      </c>
+      <c r="O84">
         <v>4.5</v>
       </c>
-      <c r="M84">
-        <v>3.75</v>
-      </c>
-      <c r="N84">
-        <v>1.8</v>
-      </c>
-      <c r="O84">
-        <v>4.2</v>
-      </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB84">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
+        <v>3.75</v>
+      </c>
+      <c r="U85">
         <v>1.925</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="T85">
-        <v>4</v>
-      </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N95">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9851,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9863,76 +9863,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L106">
+        <v>3.75</v>
+      </c>
+      <c r="M106">
+        <v>2.7</v>
+      </c>
+      <c r="N106">
+        <v>2.1</v>
+      </c>
+      <c r="O106">
         <v>4.2</v>
       </c>
-      <c r="M106">
-        <v>1.5</v>
-      </c>
-      <c r="N106">
-        <v>5</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
-      </c>
       <c r="P106">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9940,7 +9940,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9952,76 +9952,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L107">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O107">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>5</v>
+      </c>
+      <c r="U107">
         <v>1.925</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.925</v>
       </c>
-      <c r="T107">
-        <v>4.25</v>
-      </c>
-      <c r="U107">
-        <v>1.9</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10029,7 +10029,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10041,58 +10041,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
       </c>
       <c r="K108">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O108">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P108">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q108">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>5</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
         <v>1.85</v>
       </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
-      <c r="T108">
-        <v>5.25</v>
-      </c>
-      <c r="U108">
-        <v>1.9</v>
-      </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
       <c r="W108">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10101,16 +10101,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10118,7 +10118,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10130,58 +10130,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
       </c>
       <c r="K109">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>9</v>
+      </c>
+      <c r="N109">
+        <v>1.181</v>
+      </c>
+      <c r="O109">
         <v>7</v>
       </c>
-      <c r="M109">
-        <v>10</v>
-      </c>
-      <c r="N109">
-        <v>1.125</v>
-      </c>
-      <c r="O109">
+      <c r="P109">
         <v>8.5</v>
       </c>
-      <c r="P109">
-        <v>13</v>
-      </c>
       <c r="Q109">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10190,16 +10190,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -106,10 +106,10 @@
     <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Tampines Rovers FC</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Tampines Rovers FC</t>
   </si>
   <si>
     <t>Balestier Khalsa FC</t>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6228544</v>
+        <v>6228543</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -699,73 +699,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>1.1</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>17</v>
+      </c>
+      <c r="Q3">
+        <v>-2.75</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.95</v>
+      </c>
+      <c r="T3">
         <v>4.5</v>
       </c>
-      <c r="M3">
-        <v>3.3</v>
-      </c>
-      <c r="N3">
-        <v>1.65</v>
-      </c>
-      <c r="O3">
-        <v>4.5</v>
-      </c>
-      <c r="P3">
-        <v>3.5</v>
-      </c>
-      <c r="Q3">
-        <v>-0.75</v>
-      </c>
-      <c r="R3">
-        <v>1.875</v>
-      </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
-      <c r="T3">
-        <v>3.5</v>
-      </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X3">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228543</v>
+        <v>6228544</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q4">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228547</v>
+        <v>6228016</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1052,76 +1052,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P7">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.825</v>
+      </c>
+      <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>3.75</v>
+      </c>
+      <c r="U7">
         <v>1.95</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.9</v>
       </c>
-      <c r="T7">
-        <v>4.25</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228016</v>
+        <v>6228547</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,76 +1141,76 @@
         <v>44988.36458333334</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
+        <v>4.75</v>
+      </c>
+      <c r="L8">
+        <v>4.75</v>
+      </c>
+      <c r="M8">
         <v>1.444</v>
       </c>
-      <c r="L8">
-        <v>4.5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228550</v>
+        <v>6228017</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,40 +1408,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>2.1</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>6.5</v>
-      </c>
-      <c r="M11">
-        <v>1.166</v>
-      </c>
       <c r="N11">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1450,34 +1450,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>0.925</v>
       </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6228017</v>
+        <v>6228550</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1497,40 +1497,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1539,34 +1539,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.925</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1767,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6228555</v>
+        <v>6228018</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1942,13 +1942,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1957,25 +1957,25 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
         <v>1.875</v>
@@ -1984,7 +1984,7 @@
         <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -1993,7 +1993,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228018</v>
+        <v>6228555</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,13 +2031,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L18">
+        <v>4.8</v>
+      </c>
+      <c r="M18">
+        <v>4.8</v>
+      </c>
+      <c r="N18">
+        <v>1.444</v>
+      </c>
+      <c r="O18">
+        <v>4.75</v>
+      </c>
+      <c r="P18">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.65</v>
-      </c>
-      <c r="O18">
-        <v>4.2</v>
-      </c>
-      <c r="P18">
-        <v>3.6</v>
-      </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2073,7 +2073,7 @@
         <v>1.975</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2082,7 +2082,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2387,10 +2387,10 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -2642,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6228561</v>
+        <v>6228560</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2654,76 +2654,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
+        <v>1.363</v>
+      </c>
+      <c r="L25">
+        <v>4.75</v>
+      </c>
+      <c r="M25">
+        <v>5.75</v>
+      </c>
+      <c r="N25">
+        <v>1.4</v>
+      </c>
+      <c r="O25">
+        <v>4.333</v>
+      </c>
+      <c r="P25">
         <v>6</v>
       </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25">
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
+        <v>1.975</v>
+      </c>
+      <c r="S25">
+        <v>1.875</v>
+      </c>
+      <c r="T25">
         <v>3.75</v>
       </c>
-      <c r="L25">
-        <v>4.2</v>
-      </c>
-      <c r="M25">
-        <v>1.65</v>
-      </c>
-      <c r="N25">
-        <v>3.8</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-      <c r="P25">
-        <v>1.666</v>
-      </c>
-      <c r="Q25">
-        <v>0.75</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
-      </c>
-      <c r="T25">
-        <v>3.5</v>
-      </c>
       <c r="U25">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB25">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228560</v>
+        <v>6228561</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,76 +2743,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L26">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N26">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q26">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC26">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228570</v>
+        <v>6228569</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,76 +3633,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <v>1.909</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.8</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>3.6</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.85</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>3.25</v>
+      </c>
+      <c r="U36">
+        <v>1.9</v>
+      </c>
+      <c r="V36">
+        <v>1.95</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>2.6</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36">
-        <v>6.5</v>
-      </c>
-      <c r="M36">
-        <v>1.181</v>
-      </c>
-      <c r="N36">
-        <v>7</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>1.285</v>
-      </c>
-      <c r="Q36">
-        <v>1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>4.5</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228569</v>
+        <v>6228570</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,76 +3722,76 @@
         <v>45032.39583333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="N37">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="O37">
+        <v>5.5</v>
+      </c>
+      <c r="P37">
+        <v>1.285</v>
+      </c>
+      <c r="Q37">
+        <v>1.75</v>
+      </c>
+      <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
         <v>3.75</v>
       </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
-      <c r="T37">
-        <v>3.25</v>
-      </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3811,7 +3811,7 @@
         <v>45036.39583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3900,7 +3900,7 @@
         <v>45051.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -3992,7 +3992,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4511,7 +4511,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6228577</v>
+        <v>6228578</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4523,58 +4523,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
       <c r="K46">
-        <v>1.062</v>
+        <v>2.8</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>2.05</v>
       </c>
       <c r="N46">
-        <v>1.055</v>
+        <v>2.8</v>
       </c>
       <c r="O46">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>21</v>
+        <v>2.2</v>
       </c>
       <c r="Q46">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.05499999999999994</v>
+        <v>1.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4583,16 +4583,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228578</v>
+        <v>6228577</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,58 +4612,58 @@
         <v>45066.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.8</v>
+        <v>1.062</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M47">
-        <v>2.05</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>1.055</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P47">
-        <v>2.2</v>
+        <v>21</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.8</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4672,16 +4672,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4879,7 +4879,7 @@
         <v>45072.36458333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228582</v>
+        <v>6228583</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,55 +5057,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T52">
         <v>3.75</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5114,19 +5114,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
+        <v>1.025</v>
+      </c>
+      <c r="AB52">
+        <v>0.475</v>
+      </c>
+      <c r="AC52">
         <v>-0.5</v>
-      </c>
-      <c r="AB52">
-        <v>-1</v>
-      </c>
-      <c r="AC52">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6228583</v>
+        <v>6228582</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5146,55 +5146,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
       </c>
       <c r="K53">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N53">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5203,19 +5203,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA53">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,76 +5413,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <v>3.4</v>
+      </c>
+      <c r="L56">
+        <v>4.1</v>
+      </c>
+      <c r="M56">
+        <v>1.727</v>
+      </c>
+      <c r="N56">
+        <v>4.5</v>
+      </c>
+      <c r="O56">
+        <v>4.5</v>
+      </c>
+      <c r="P56">
+        <v>1.533</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.85</v>
+      </c>
+      <c r="T56">
+        <v>3.5</v>
+      </c>
+      <c r="U56">
+        <v>1.925</v>
+      </c>
+      <c r="V56">
+        <v>1.925</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z56">
         <v>0</v>
       </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56">
-        <v>1.222</v>
-      </c>
-      <c r="L56">
-        <v>5.75</v>
-      </c>
-      <c r="M56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1.25</v>
-      </c>
-      <c r="O56">
-        <v>5.5</v>
-      </c>
-      <c r="P56">
-        <v>7</v>
-      </c>
-      <c r="Q56">
-        <v>-1.75</v>
-      </c>
-      <c r="R56">
-        <v>1.875</v>
-      </c>
-      <c r="S56">
-        <v>1.975</v>
-      </c>
-      <c r="T56">
-        <v>4</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
-      <c r="V56">
-        <v>2.025</v>
-      </c>
-      <c r="W56">
-        <v>0.25</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>0.875</v>
-      </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,76 +5502,76 @@
         <v>45083.36458333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57">
+        <v>1.222</v>
+      </c>
+      <c r="L57">
+        <v>5.75</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57">
+        <v>1.25</v>
+      </c>
+      <c r="O57">
+        <v>5.5</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>-1.75</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="J57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K57">
-        <v>3.4</v>
-      </c>
-      <c r="L57">
-        <v>4.1</v>
-      </c>
-      <c r="M57">
-        <v>1.727</v>
-      </c>
-      <c r="N57">
-        <v>4.5</v>
-      </c>
-      <c r="O57">
-        <v>4.5</v>
-      </c>
-      <c r="P57">
-        <v>1.533</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>1.85</v>
-      </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5757,7 +5757,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5769,58 +5769,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
       </c>
       <c r="K60">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M60">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5829,16 +5829,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5846,7 +5846,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5858,58 +5858,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>38</v>
       </c>
       <c r="K61">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L61">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N61">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O61">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q61">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R61">
+        <v>2.05</v>
+      </c>
+      <c r="S61">
+        <v>1.8</v>
+      </c>
+      <c r="T61">
+        <v>3.5</v>
+      </c>
+      <c r="U61">
         <v>1.85</v>
       </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>4</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W61">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5918,16 +5918,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5935,7 +5935,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5947,76 +5947,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62">
+        <v>2.3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>2.3</v>
+      </c>
+      <c r="N62">
+        <v>2.3</v>
+      </c>
+      <c r="O62">
+        <v>3.75</v>
+      </c>
+      <c r="P62">
+        <v>2.4</v>
+      </c>
+      <c r="Q62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62">
-        <v>7.5</v>
-      </c>
-      <c r="L62">
-        <v>5.5</v>
-      </c>
-      <c r="M62">
-        <v>1.25</v>
-      </c>
-      <c r="N62">
-        <v>10</v>
-      </c>
-      <c r="O62">
-        <v>6</v>
-      </c>
-      <c r="P62">
-        <v>1.181</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6024,7 +6024,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6036,76 +6036,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M63">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>1.181</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
         <v>3.75</v>
       </c>
-      <c r="P63">
-        <v>2.4</v>
-      </c>
-      <c r="Q63">
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
+        <v>1.925</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>0.181</v>
+      </c>
+      <c r="Z63">
         <v>0</v>
       </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>4.25</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>1.3</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.875</v>
-      </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6481,10 +6481,10 @@
         <v>45104.36458333334</v>
       </c>
       <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
         <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6659,55 +6659,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>40</v>
       </c>
       <c r="K70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L70">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M70">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N70">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O70">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P70">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W70">
         <v>-1</v>
@@ -6716,16 +6716,16 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6748,55 +6748,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J71" t="s">
         <v>40</v>
       </c>
       <c r="K71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L71">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M71">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O71">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P71">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6805,16 +6805,16 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6840,7 +6840,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA74">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>1.8</v>
+      </c>
+      <c r="N75">
+        <v>3.4</v>
+      </c>
+      <c r="O75">
         <v>4.2</v>
       </c>
-      <c r="M75">
-        <v>1.5</v>
-      </c>
-      <c r="N75">
-        <v>7.5</v>
-      </c>
-      <c r="O75">
-        <v>4.75</v>
-      </c>
       <c r="P75">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q75">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z75">
+        <v>-0.5</v>
+      </c>
+      <c r="AA75">
+        <v>0.5125</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>34</v>
@@ -7537,7 +7537,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7549,76 +7549,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K80">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7626,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7638,76 +7638,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L81">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
+        <v>1.975</v>
+      </c>
+      <c r="S81">
+        <v>1.875</v>
+      </c>
+      <c r="T81">
+        <v>3.5</v>
+      </c>
+      <c r="U81">
         <v>1.925</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>4.25</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
+        <v>0.875</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7727,40 +7727,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L82">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M82">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N82">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P82">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R82">
         <v>1.85</v>
@@ -7772,19 +7772,19 @@
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z82">
         <v>0.8500000000000001</v>
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7816,40 +7816,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M83">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N83">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O83">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q83">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
         <v>1.85</v>
@@ -7861,19 +7861,19 @@
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>0.8500000000000001</v>
@@ -7882,10 +7882,10 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P84">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>3.75</v>
+      </c>
+      <c r="U84">
         <v>1.925</v>
       </c>
-      <c r="S84">
+      <c r="V84">
         <v>1.925</v>
       </c>
-      <c r="T84">
-        <v>4</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.95</v>
-      </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
         <v>3</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
       <c r="J85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K85">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>2.6</v>
+      </c>
+      <c r="N85">
+        <v>2.05</v>
+      </c>
+      <c r="O85">
         <v>4.5</v>
       </c>
-      <c r="M85">
-        <v>3.75</v>
-      </c>
-      <c r="N85">
-        <v>1.8</v>
-      </c>
-      <c r="O85">
-        <v>4.2</v>
-      </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB85">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8249,7 +8249,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,70 +8264,70 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K88">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L88">
+        <v>11</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>1.055</v>
+      </c>
+      <c r="O88">
+        <v>11</v>
+      </c>
+      <c r="P88">
+        <v>17</v>
+      </c>
+      <c r="Q88">
+        <v>-3.25</v>
+      </c>
+      <c r="R88">
+        <v>1.925</v>
+      </c>
+      <c r="S88">
+        <v>1.925</v>
+      </c>
+      <c r="T88">
         <v>4.5</v>
       </c>
-      <c r="M88">
-        <v>7</v>
-      </c>
-      <c r="N88">
-        <v>1.25</v>
-      </c>
-      <c r="O88">
-        <v>5.5</v>
-      </c>
-      <c r="P88">
-        <v>8</v>
-      </c>
-      <c r="Q88">
-        <v>-1.75</v>
-      </c>
-      <c r="R88">
-        <v>1.9</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
-      </c>
-      <c r="T88">
-        <v>3.75</v>
-      </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8338,7 +8338,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,70 +8353,70 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N89">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O89">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P89">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q89">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>3.75</v>
+      </c>
+      <c r="U89">
         <v>1.925</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.925</v>
       </c>
-      <c r="T89">
-        <v>4.5</v>
-      </c>
-      <c r="U89">
-        <v>1.85</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
+        <v>0.95</v>
+      </c>
+      <c r="AB89">
         <v>0.925</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8528,10 +8528,10 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
         <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>30</v>
       </c>
       <c r="H91">
         <v>6</v>
@@ -8798,7 +8798,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9228,7 +9228,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9240,55 +9240,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>40</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>1.4</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>5.25</v>
+      </c>
+      <c r="P99">
+        <v>1.4</v>
+      </c>
+      <c r="Q99">
+        <v>1.25</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.85</v>
+      </c>
+      <c r="T99">
         <v>4</v>
       </c>
-      <c r="M99">
-        <v>2.55</v>
-      </c>
-      <c r="N99">
-        <v>2.15</v>
-      </c>
-      <c r="O99">
-        <v>3.6</v>
-      </c>
-      <c r="P99">
-        <v>2.8</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.9</v>
-      </c>
-      <c r="T99">
-        <v>4.5</v>
-      </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9297,19 +9297,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9317,7 +9317,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9329,56 +9329,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J100" t="s">
         <v>40</v>
       </c>
       <c r="K100">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O100">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q100">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>4.5</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
         <v>1.85</v>
       </c>
-      <c r="T100">
-        <v>4</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.875</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
@@ -9386,19 +9386,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>45156.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9777,7 +9777,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10041,7 +10041,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228552</v>
+        <v>6228551</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,76 +1586,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>1.5</v>
-      </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M13">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228551</v>
+        <v>6228552</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,76 +1675,76 @@
         <v>44995.36458333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="O14">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P14">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
         <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB14">
         <v>0.95</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228579</v>
+        <v>6228025</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,73 +4701,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K48">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N48">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O48">
         <v>4.5</v>
       </c>
       <c r="P48">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6228025</v>
+        <v>6228579</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4790,73 +4790,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="J49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K49">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O49">
         <v>4.5</v>
       </c>
       <c r="P49">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>1.925</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
+        <v>3.75</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1.85</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
+        <v>1.9</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.925</v>
+      </c>
+      <c r="AB49">
         <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1.875</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>3.5</v>
-      </c>
-      <c r="U49">
-        <v>1.875</v>
-      </c>
-      <c r="V49">
-        <v>1.975</v>
-      </c>
-      <c r="W49">
-        <v>3</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.875</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -6825,7 +6825,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6837,76 +6837,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
+        <v>2.5</v>
+      </c>
+      <c r="L72">
         <v>3.6</v>
       </c>
-      <c r="L72">
-        <v>4.2</v>
-      </c>
       <c r="M72">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N72">
+        <v>2.6</v>
+      </c>
+      <c r="O72">
+        <v>3.75</v>
+      </c>
+      <c r="P72">
+        <v>2.2</v>
+      </c>
+      <c r="Q72">
+        <v>0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
+        <v>2.025</v>
+      </c>
+      <c r="T72">
         <v>4</v>
       </c>
-      <c r="O72">
-        <v>4.5</v>
-      </c>
-      <c r="P72">
-        <v>1.55</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>3.25</v>
-      </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6914,7 +6914,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6926,76 +6926,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M73">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="S73">
-        <v>2.025</v>
-      </c>
-      <c r="T73">
-        <v>4</v>
-      </c>
-      <c r="U73">
-        <v>1.95</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y73">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7003,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7015,49 +7015,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>40</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1.8</v>
+      </c>
+      <c r="N74">
+        <v>3.4</v>
+      </c>
+      <c r="O74">
         <v>4.2</v>
       </c>
-      <c r="M74">
-        <v>1.5</v>
-      </c>
-      <c r="N74">
-        <v>7.5</v>
-      </c>
-      <c r="O74">
-        <v>4.75</v>
-      </c>
       <c r="P74">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -7072,19 +7072,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z74">
+        <v>-0.5</v>
+      </c>
+      <c r="AA74">
+        <v>0.5125</v>
+      </c>
+      <c r="AB74">
         <v>1</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7092,7 +7092,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7104,49 +7104,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>40</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M75">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O75">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7161,19 +7161,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA75">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K95">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N95">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N96">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228017</v>
+        <v>6228550</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,40 +1408,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1.166</v>
       </c>
       <c r="N11">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>1.925</v>
@@ -1450,34 +1450,34 @@
         <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
         <v>0.925</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6228550</v>
+        <v>6228017</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1497,40 +1497,40 @@
         <v>44994.36458333334</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>2.1</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>6.5</v>
-      </c>
-      <c r="M12">
-        <v>1.166</v>
-      </c>
       <c r="N12">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="O12">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1539,34 +1539,34 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>0.925</v>
       </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6228554</v>
+        <v>6228553</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1764,76 +1764,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
         <v>4.5</v>
       </c>
       <c r="M15">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P15">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1841,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6228553</v>
+        <v>6228554</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1853,76 +1853,76 @@
         <v>44999.36458333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
         <v>4.5</v>
       </c>
       <c r="M16">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6228018</v>
+        <v>6228555</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1942,13 +1942,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1957,25 +1957,25 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
+        <v>4.8</v>
+      </c>
+      <c r="M17">
+        <v>4.8</v>
+      </c>
+      <c r="N17">
+        <v>1.444</v>
+      </c>
+      <c r="O17">
+        <v>4.75</v>
+      </c>
+      <c r="P17">
         <v>5</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.65</v>
-      </c>
-      <c r="O17">
-        <v>4.2</v>
-      </c>
-      <c r="P17">
-        <v>3.6</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
         <v>1.875</v>
@@ -1984,7 +1984,7 @@
         <v>1.975</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U17">
         <v>1.925</v>
@@ -1993,7 +1993,7 @@
         <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228555</v>
+        <v>6228018</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,13 +2031,13 @@
         <v>45000.36458333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>38</v>
       </c>
       <c r="K18">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="L18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
         <v>1.875</v>
@@ -2073,7 +2073,7 @@
         <v>1.975</v>
       </c>
       <c r="T18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
@@ -2082,7 +2082,7 @@
         <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228556</v>
+        <v>6228019</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,49 +2120,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>9</v>
+        <v>1.166</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.222</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>1.25</v>
       </c>
       <c r="O19">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>-1.75</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U19">
         <v>1.85</v>
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="W19">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2180,7 +2180,7 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228019</v>
+        <v>6228556</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,49 +2209,49 @@
         <v>45003.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
       <c r="K20">
-        <v>1.166</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>1.222</v>
       </c>
       <c r="N20">
-        <v>1.25</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q20">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U20">
         <v>1.85</v>
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="W20">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2269,7 +2269,7 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228557</v>
+        <v>6228558</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,55 +2298,55 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>40</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
         <v>3.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2355,19 +2355,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.825</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.95</v>
-      </c>
-      <c r="AB21">
-        <v>0.925</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228558</v>
+        <v>6228557</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,55 +2387,55 @@
         <v>45004.29166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
       <c r="K22">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
+        <v>2.6</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>2.05</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
         <v>1.95</v>
-      </c>
-      <c r="O22">
-        <v>4.333</v>
-      </c>
-      <c r="P22">
-        <v>2.75</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
       </c>
       <c r="T22">
         <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228559</v>
+        <v>6228020</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,76 +2476,76 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N23">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O23">
+        <v>4.333</v>
+      </c>
+      <c r="P23">
+        <v>3.4</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
         <v>3.75</v>
       </c>
-      <c r="P23">
-        <v>2.375</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="U23">
         <v>1.925</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.925</v>
       </c>
-      <c r="T23">
-        <v>3.5</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.925</v>
       </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2553,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6228020</v>
+        <v>6228559</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2565,76 +2565,76 @@
         <v>45016.39583333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>4</v>
       </c>
       <c r="M24">
+        <v>2.75</v>
+      </c>
+      <c r="N24">
         <v>2.375</v>
       </c>
-      <c r="N24">
-        <v>1.833</v>
-      </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2642,7 +2642,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6228560</v>
+        <v>6228561</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2654,76 +2654,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L25">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M25">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N25">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U25">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC25">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228561</v>
+        <v>6228560</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,76 +2743,76 @@
         <v>45017.39583333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>1.363</v>
+      </c>
+      <c r="L26">
+        <v>4.75</v>
+      </c>
+      <c r="M26">
+        <v>5.75</v>
+      </c>
+      <c r="N26">
+        <v>1.4</v>
+      </c>
+      <c r="O26">
+        <v>4.333</v>
+      </c>
+      <c r="P26">
         <v>6</v>
       </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26">
+      <c r="Q26">
+        <v>-1.25</v>
+      </c>
+      <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.875</v>
+      </c>
+      <c r="T26">
         <v>3.75</v>
       </c>
-      <c r="L26">
-        <v>4.2</v>
-      </c>
-      <c r="M26">
-        <v>1.65</v>
-      </c>
-      <c r="N26">
-        <v>3.8</v>
-      </c>
-      <c r="O26">
-        <v>4</v>
-      </c>
-      <c r="P26">
-        <v>1.666</v>
-      </c>
-      <c r="Q26">
-        <v>0.75</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>3.5</v>
-      </c>
       <c r="U26">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AB26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228021</v>
+        <v>6228565</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,55 +3099,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>40</v>
       </c>
       <c r="K30">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="L30">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="M30">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>1.363</v>
+        <v>1.45</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
         <v>1.95</v>
       </c>
-      <c r="S30">
-        <v>1.9</v>
-      </c>
       <c r="T30">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3156,19 +3156,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.363</v>
+        <v>0.45</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228565</v>
+        <v>6228021</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,55 +3188,55 @@
         <v>45026.39583333334</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>40</v>
       </c>
       <c r="K31">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="L31">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M31">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N31">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O31">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="Q31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
         <v>1.9</v>
       </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
       <c r="T31">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3245,19 +3245,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.45</v>
+        <v>0.363</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3443,7 +3443,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6228022</v>
+        <v>6228568</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3455,67 +3455,67 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="L34">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>1.181</v>
+        <v>5.5</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="O34">
+        <v>4.333</v>
+      </c>
+      <c r="P34">
         <v>5.75</v>
       </c>
-      <c r="P34">
-        <v>1.25</v>
-      </c>
       <c r="Q34">
-        <v>2</v>
+        <v>-1.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
         <v>1.975</v>
       </c>
-      <c r="V34">
-        <v>1.875</v>
-      </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X34">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3524,7 +3524,7 @@
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3532,7 +3532,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6228568</v>
+        <v>6228022</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3544,67 +3544,67 @@
         <v>45031.39583333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K35">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="L35">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M35">
-        <v>5.5</v>
+        <v>1.181</v>
       </c>
       <c r="N35">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q35">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U35">
+        <v>1.975</v>
+      </c>
+      <c r="V35">
         <v>1.875</v>
       </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3613,7 +3613,7 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4066,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6228023</v>
+        <v>6228574</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4078,46 +4078,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K41">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="L41">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N41">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="Q41">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>3.5</v>
@@ -4129,19 +4129,19 @@
         <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
         <v>-1</v>
@@ -4155,7 +4155,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6228574</v>
+        <v>6228023</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4167,46 +4167,46 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>5.5</v>
+      </c>
+      <c r="L42">
+        <v>4.5</v>
+      </c>
+      <c r="M42">
+        <v>1.4</v>
+      </c>
+      <c r="N42">
+        <v>4.5</v>
+      </c>
+      <c r="O42">
+        <v>4.2</v>
+      </c>
+      <c r="P42">
+        <v>1.533</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
-      <c r="J42" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>2.1</v>
-      </c>
-      <c r="L42">
-        <v>3.75</v>
-      </c>
-      <c r="M42">
-        <v>2.7</v>
-      </c>
-      <c r="N42">
-        <v>2.15</v>
-      </c>
-      <c r="O42">
-        <v>3.5</v>
-      </c>
-      <c r="P42">
-        <v>2.75</v>
-      </c>
-      <c r="Q42">
-        <v>-0.25</v>
-      </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T42">
         <v>3.5</v>
@@ -4218,19 +4218,19 @@
         <v>1.925</v>
       </c>
       <c r="W42">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
         <v>-1</v>
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228025</v>
+        <v>6228579</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,73 +4701,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>3</v>
       </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M48">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="O48">
         <v>4.5</v>
       </c>
       <c r="P48">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q48">
+        <v>-0.5</v>
+      </c>
+      <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>3.75</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1.85</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>1.9</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.925</v>
+      </c>
+      <c r="AB48">
         <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>3.5</v>
-      </c>
-      <c r="U48">
-        <v>1.875</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
-      <c r="W48">
-        <v>3</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0.875</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>0.875</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4778,7 +4778,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6228579</v>
+        <v>6228025</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4790,73 +4790,73 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K49">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L49">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N49">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="O49">
         <v>4.5</v>
       </c>
       <c r="P49">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228583</v>
+        <v>6228582</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,55 +5057,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>40</v>
       </c>
       <c r="K52">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N52">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>3.75</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5114,19 +5114,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5134,7 +5134,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6228582</v>
+        <v>6228583</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5146,55 +5146,55 @@
         <v>45074.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>40</v>
       </c>
       <c r="K53">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M53">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O53">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5203,19 +5203,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.3999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
+        <v>1.025</v>
+      </c>
+      <c r="AB53">
+        <v>0.475</v>
+      </c>
+      <c r="AC53">
         <v>-0.5</v>
-      </c>
-      <c r="AB53">
-        <v>-1</v>
-      </c>
-      <c r="AC53">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5757,7 +5757,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5769,58 +5769,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
       </c>
       <c r="K60">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N60">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O60">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q60">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R60">
+        <v>2.05</v>
+      </c>
+      <c r="S60">
+        <v>1.8</v>
+      </c>
+      <c r="T60">
+        <v>3.5</v>
+      </c>
+      <c r="U60">
         <v>1.85</v>
       </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>4</v>
-      </c>
-      <c r="U60">
-        <v>1.875</v>
-      </c>
       <c r="V60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5829,16 +5829,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5846,7 +5846,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5858,58 +5858,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>38</v>
       </c>
       <c r="K61">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M61">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N61">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P61">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5918,16 +5918,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6202,7 +6202,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6214,13 +6214,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6229,43 +6229,43 @@
         <v>38</v>
       </c>
       <c r="K65">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O65">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6274,16 +6274,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6291,7 +6291,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6303,13 +6303,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6318,43 +6318,43 @@
         <v>38</v>
       </c>
       <c r="K66">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L66">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P66">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q66">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6363,16 +6363,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6825,7 +6825,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6837,76 +6837,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R72">
+        <v>1.85</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
         <v>1.825</v>
       </c>
-      <c r="S72">
-        <v>2.025</v>
-      </c>
-      <c r="T72">
-        <v>4</v>
-      </c>
-      <c r="U72">
-        <v>1.95</v>
-      </c>
-      <c r="V72">
-        <v>1.9</v>
-      </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y72">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6914,7 +6914,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6926,76 +6926,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
+        <v>2.5</v>
+      </c>
+      <c r="L73">
         <v>3.6</v>
       </c>
-      <c r="L73">
-        <v>4.2</v>
-      </c>
       <c r="M73">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.75</v>
+      </c>
+      <c r="P73">
+        <v>2.2</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
         <v>4</v>
       </c>
-      <c r="O73">
-        <v>4.5</v>
-      </c>
-      <c r="P73">
-        <v>1.55</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>3.25</v>
-      </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7359,7 +7359,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7371,19 +7371,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K78">
         <v>1.2</v>
@@ -7395,52 +7395,52 @@
         <v>9</v>
       </c>
       <c r="N78">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O78">
         <v>7.5</v>
       </c>
       <c r="P78">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q78">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7448,7 +7448,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7460,19 +7460,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K79">
         <v>1.2</v>
@@ -7484,52 +7484,52 @@
         <v>9</v>
       </c>
       <c r="N79">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O79">
         <v>7.5</v>
       </c>
       <c r="P79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q79">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7715,7 +7715,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7727,40 +7727,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M82">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N82">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O82">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P82">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q82">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
         <v>1.85</v>
@@ -7772,19 +7772,19 @@
         <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>0.8500000000000001</v>
@@ -7793,10 +7793,10 @@
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7804,7 +7804,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7816,40 +7816,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L83">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M83">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N83">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P83">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R83">
         <v>1.85</v>
@@ -7861,19 +7861,19 @@
         <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z83">
         <v>0.8500000000000001</v>
@@ -7882,10 +7882,10 @@
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7893,7 +7893,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7905,76 +7905,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K84">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="N84">
+        <v>2.05</v>
+      </c>
+      <c r="O84">
         <v>4.5</v>
       </c>
-      <c r="M84">
-        <v>3.75</v>
-      </c>
-      <c r="N84">
-        <v>1.8</v>
-      </c>
-      <c r="O84">
-        <v>4.2</v>
-      </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB84">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7982,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7994,76 +7994,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K85">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.85</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
+        <v>3.75</v>
+      </c>
+      <c r="U85">
         <v>1.925</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.925</v>
       </c>
-      <c r="T85">
-        <v>4</v>
-      </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8427,7 +8427,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8439,76 +8439,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8516,7 +8516,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8528,76 +8528,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
+        <v>2.25</v>
+      </c>
+      <c r="N91">
+        <v>2.45</v>
+      </c>
+      <c r="O91">
         <v>3.6</v>
       </c>
-      <c r="N91">
-        <v>1.5</v>
-      </c>
-      <c r="O91">
-        <v>3.8</v>
-      </c>
       <c r="P91">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8872,7 +8872,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8884,76 +8884,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>4</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8961,7 +8961,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8973,76 +8973,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K96">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O96">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>4</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9228,7 +9228,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9240,56 +9240,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J99" t="s">
         <v>40</v>
       </c>
       <c r="K99">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
+        <v>1.9</v>
+      </c>
+      <c r="T99">
+        <v>4.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
         <v>1.85</v>
       </c>
-      <c r="T99">
-        <v>4</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.875</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
@@ -9297,19 +9297,19 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9317,7 +9317,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9329,55 +9329,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>40</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>1.4</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>5.25</v>
+      </c>
+      <c r="P100">
+        <v>1.4</v>
+      </c>
+      <c r="Q100">
+        <v>1.25</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
         <v>4</v>
       </c>
-      <c r="M100">
-        <v>2.55</v>
-      </c>
-      <c r="N100">
-        <v>2.15</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>2.8</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.9</v>
-      </c>
-      <c r="T100">
-        <v>4.5</v>
-      </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9386,19 +9386,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Young Lions</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2568,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>2.6</v>
+      </c>
+      <c r="N32">
+        <v>2.05</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="M32">
-        <v>3.75</v>
-      </c>
-      <c r="N32">
-        <v>1.8</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3.75</v>
+      </c>
+      <c r="U33">
         <v>1.925</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>4</v>
-      </c>
-      <c r="U33">
-        <v>1.9</v>
-      </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.925</v>
       </c>
-      <c r="T36">
-        <v>4.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.95</v>
+      </c>
+      <c r="AB36">
         <v>0.925</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1.055</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>-3.25</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>4.5</v>
       </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1.25</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>-1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>1.181</v>
+      </c>
+      <c r="O56">
         <v>7</v>
       </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1.125</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
         <v>8.5</v>
       </c>
-      <c r="P56">
-        <v>13</v>
-      </c>
       <c r="Q56">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q57">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>5.25</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>2.3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2.3</v>
+      </c>
+      <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>2.4</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>5.5</v>
-      </c>
-      <c r="M10">
-        <v>1.25</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>1.181</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1.181</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
         <v>3.75</v>
       </c>
-      <c r="P11">
-        <v>2.4</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>0.181</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>1.875</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>4.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>1.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.875</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N32">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.75</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>4</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2.6</v>
+      </c>
+      <c r="N33">
+        <v>2.05</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>1.8</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1.055</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>17</v>
+      </c>
+      <c r="Q36">
+        <v>-3.25</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>4.5</v>
       </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1.25</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>-1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>4.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.95</v>
+      </c>
+      <c r="AB37">
         <v>0.925</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Young Lions</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1.181</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>3.75</v>
       </c>
-      <c r="P10">
-        <v>2.4</v>
-      </c>
-      <c r="Q10">
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.925</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.181</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>4.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.875</v>
-      </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>2.3</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.4</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>7.5</v>
-      </c>
-      <c r="L11">
-        <v>5.5</v>
-      </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>1.181</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.925</v>
       </c>
-      <c r="T36">
-        <v>4.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.95</v>
+      </c>
+      <c r="AB36">
         <v>0.925</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1.055</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>-3.25</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>4.5</v>
       </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1.25</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>-1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4259,7 +4259,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,56 +4612,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,55 +4701,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1.4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.15</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>4.5</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>2.6</v>
+      </c>
+      <c r="N32">
+        <v>2.05</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="M32">
-        <v>3.75</v>
-      </c>
-      <c r="N32">
-        <v>1.8</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3.75</v>
+      </c>
+      <c r="U33">
         <v>1.925</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>4</v>
-      </c>
-      <c r="U33">
-        <v>1.9</v>
-      </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,16 +109,16 @@
     <t>Hougang United FC</t>
   </si>
   <si>
+    <t>Young Lions</t>
+  </si>
+  <si>
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>DPMM FC</t>
-  </si>
-  <si>
-    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,10 +1319,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2565,10 +2565,10 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3366,10 +3366,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3722,10 +3722,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
         <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3811,7 +3811,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5327,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q56">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>5.25</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
       <c r="W56">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>1.181</v>
+      </c>
+      <c r="O57">
         <v>7</v>
       </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>1.125</v>
-      </c>
-      <c r="O57">
+      <c r="P57">
         <v>8.5</v>
       </c>
-      <c r="P57">
-        <v>13</v>
-      </c>
       <c r="Q57">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>2.3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2.3</v>
+      </c>
+      <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>2.4</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>5.5</v>
-      </c>
-      <c r="M10">
-        <v>1.25</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>1.181</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1.181</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
         <v>3.75</v>
       </c>
-      <c r="P11">
-        <v>2.4</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>0.181</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>1.875</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>4.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>1.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.875</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3369,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,56 +4612,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,55 +4701,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1.4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.15</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>4.5</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>1.181</v>
+      </c>
+      <c r="O56">
         <v>7</v>
       </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1.125</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
         <v>8.5</v>
       </c>
-      <c r="P56">
-        <v>13</v>
-      </c>
       <c r="Q56">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q57">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>5.25</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1408,7 +1408,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4.2</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5125</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3369,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1.055</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>17</v>
+      </c>
+      <c r="Q36">
+        <v>-3.25</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>4.5</v>
       </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1.25</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>-1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>4.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.95</v>
+      </c>
+      <c r="AB37">
         <v>0.925</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3811,7 +3811,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5238,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.925</v>
       </c>
-      <c r="T36">
-        <v>4.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.95</v>
+      </c>
+      <c r="AB36">
         <v>0.925</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1.055</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>-3.25</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>4.5</v>
       </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1.25</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>-1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q56">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>5.25</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
       <c r="W56">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>1.181</v>
+      </c>
+      <c r="O57">
         <v>7</v>
       </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>1.125</v>
-      </c>
-      <c r="O57">
+      <c r="P57">
         <v>8.5</v>
       </c>
-      <c r="P57">
-        <v>13</v>
-      </c>
       <c r="Q57">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1.222</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.1</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1.533</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1.222</v>
-      </c>
-      <c r="L5">
-        <v>5.75</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1.181</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>3.75</v>
       </c>
-      <c r="P10">
-        <v>2.4</v>
-      </c>
-      <c r="Q10">
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.925</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.181</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>4.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.875</v>
-      </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>2.3</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.4</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>7.5</v>
-      </c>
-      <c r="L11">
-        <v>5.5</v>
-      </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>1.181</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2657,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1.055</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>17</v>
+      </c>
+      <c r="Q36">
+        <v>-3.25</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>4.5</v>
       </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1.25</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>-1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>4.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.95</v>
+      </c>
+      <c r="AB37">
         <v>0.925</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -5060,7 +5060,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1322,7 +1322,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4.2</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5125</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2657,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3633,10 +3633,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -5060,7 +5060,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1.222</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.1</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1.533</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1.222</v>
-      </c>
-      <c r="L5">
-        <v>5.75</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1322,7 +1322,7 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4.2</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5125</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2657,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3099,7 +3099,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3633,10 +3633,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -5060,7 +5060,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Young Lions</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -1319,7 +1319,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1586,7 +1586,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4.2</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5125</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.925</v>
       </c>
-      <c r="T36">
-        <v>4.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.95</v>
+      </c>
+      <c r="AB36">
         <v>0.925</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1.055</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>-3.25</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>4.5</v>
       </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1.25</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>-1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4259,7 +4259,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,56 +4612,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,55 +4701,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1.4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.15</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>4.5</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,16 +109,16 @@
     <t>Hougang United FC</t>
   </si>
   <si>
+    <t>Young Lions</t>
+  </si>
+  <si>
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>DPMM FC</t>
-  </si>
-  <si>
-    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>2.3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2.3</v>
+      </c>
+      <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>2.4</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>5.5</v>
-      </c>
-      <c r="M10">
-        <v>1.25</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>1.181</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1.181</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
         <v>3.75</v>
       </c>
-      <c r="P11">
-        <v>2.4</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>0.181</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>1.875</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>4.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>1.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.875</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1586,10 +1586,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2034,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2120,10 +2120,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2565,10 +2565,10 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3366,10 +3366,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3722,10 +3722,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
         <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5060,7 +5060,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,16 +109,16 @@
     <t>Hougang United FC</t>
   </si>
   <si>
+    <t>Albirex Niigata Singapore</t>
+  </si>
+  <si>
     <t>Young Lions</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
-  </si>
-  <si>
-    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1.222</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.1</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1.533</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1.222</v>
-      </c>
-      <c r="L5">
-        <v>5.75</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,10 +1141,10 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1408,10 +1408,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2034,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2120,10 +2120,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
         <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2565,10 +2565,10 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N32">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.75</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>4</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2.6</v>
+      </c>
+      <c r="N33">
+        <v>2.05</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>1.8</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1.055</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>17</v>
+      </c>
+      <c r="Q36">
+        <v>-3.25</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>4.5</v>
       </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1.25</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>-1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>4.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.95</v>
+      </c>
+      <c r="AB37">
         <v>0.925</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4612,10 +4612,10 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5060,7 +5060,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>1.181</v>
+      </c>
+      <c r="O56">
         <v>7</v>
       </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1.125</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
         <v>8.5</v>
       </c>
-      <c r="P56">
-        <v>13</v>
-      </c>
       <c r="Q56">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q57">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>5.25</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Young Lions</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4.2</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5125</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2832,10 +2832,10 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>2.6</v>
+      </c>
+      <c r="N32">
+        <v>2.05</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="M32">
-        <v>3.75</v>
-      </c>
-      <c r="N32">
-        <v>1.8</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3.75</v>
+      </c>
+      <c r="U33">
         <v>1.925</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>4</v>
-      </c>
-      <c r="U33">
-        <v>1.9</v>
-      </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K36">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P36">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q36">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
         <v>1.925</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.925</v>
       </c>
-      <c r="T36">
-        <v>4.5</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.95</v>
+      </c>
+      <c r="AB36">
         <v>0.925</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>1.055</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+      <c r="Q37">
+        <v>-3.25</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.925</v>
+      </c>
+      <c r="T37">
         <v>4.5</v>
       </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1.25</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>-1.75</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.95</v>
-      </c>
-      <c r="T37">
-        <v>3.75</v>
-      </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4259,7 +4259,7 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,56 +4612,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,55 +4701,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1.4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.15</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>4.5</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5238,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1411,7 +1411,7 @@
         <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -2657,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3099,7 +3099,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N32">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.75</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>4</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2.6</v>
+      </c>
+      <c r="N33">
+        <v>2.05</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>1.8</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3722,10 +3722,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
         <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4701,7 +4701,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1408,7 +1408,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4259,7 +4259,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q56">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>5.25</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
       <c r="W56">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>1.181</v>
+      </c>
+      <c r="O57">
         <v>7</v>
       </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>1.125</v>
-      </c>
-      <c r="O57">
+      <c r="P57">
         <v>8.5</v>
       </c>
-      <c r="P57">
-        <v>13</v>
-      </c>
       <c r="Q57">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1408,7 +1408,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4.2</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5125</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4259,7 +4259,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,16 +109,16 @@
     <t>Hougang United FC</t>
   </si>
   <si>
+    <t>Albirex Niigata Singapore</t>
+  </si>
+  <si>
     <t>Young Lions</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
-  </si>
-  <si>
-    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1.222</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.1</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1.533</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1.222</v>
-      </c>
-      <c r="L5">
-        <v>5.75</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,10 +1141,10 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1408,10 +1408,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1586,10 +1586,10 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2565,10 +2565,10 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,10 +3277,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3722,10 +3722,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
         <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3811,7 +3811,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,56 +4612,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,55 +4701,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1.4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.15</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>4.5</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4971,7 +4971,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>DPMM FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -1675,7 +1675,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3188,7 +3188,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3722,10 +3722,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
         <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3811,7 +3811,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4701,7 +4701,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -4971,7 +4971,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1.181</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>3.75</v>
       </c>
-      <c r="P10">
-        <v>2.4</v>
-      </c>
-      <c r="Q10">
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.925</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.181</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>4.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.875</v>
-      </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>2.3</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.4</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>7.5</v>
-      </c>
-      <c r="L11">
-        <v>5.5</v>
-      </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>1.181</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4.2</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5125</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
     <t>DPMM FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1.222</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.1</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1.533</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1.222</v>
-      </c>
-      <c r="L5">
-        <v>5.75</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1233,7 +1233,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1322,7 +1322,7 @@
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4.2</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5125</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3722,10 +3722,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
         <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>DPMM FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>2.3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2.3</v>
+      </c>
+      <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>2.4</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>5.5</v>
-      </c>
-      <c r="M10">
-        <v>1.25</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>1.181</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1.181</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
         <v>3.75</v>
       </c>
-      <c r="P11">
-        <v>2.4</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>0.181</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>1.875</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>4.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>1.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.875</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>2.6</v>
+      </c>
+      <c r="N32">
+        <v>2.05</v>
+      </c>
+      <c r="O32">
         <v>4.5</v>
       </c>
-      <c r="M32">
-        <v>3.75</v>
-      </c>
-      <c r="N32">
-        <v>1.8</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>3.75</v>
+      </c>
+      <c r="U33">
         <v>1.925</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.925</v>
       </c>
-      <c r="T33">
-        <v>4</v>
-      </c>
-      <c r="U33">
-        <v>1.9</v>
-      </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3621,7 +3621,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6228610</v>
+        <v>6228609</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3633,73 +3633,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K36">
-        <v>1.333</v>
+        <v>1.062</v>
       </c>
       <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1.055</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>17</v>
+      </c>
+      <c r="Q36">
+        <v>-3.25</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.925</v>
+      </c>
+      <c r="T36">
         <v>4.5</v>
       </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1.25</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="P36">
-        <v>8</v>
-      </c>
-      <c r="Q36">
-        <v>-1.75</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>3.75</v>
-      </c>
       <c r="U36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3710,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6228609</v>
+        <v>6228610</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3722,73 +3722,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37">
-        <v>1.062</v>
+        <v>1.333</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N37">
-        <v>1.055</v>
+        <v>1.25</v>
       </c>
       <c r="O37">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
+        <v>1.9</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
         <v>1.925</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>1.925</v>
       </c>
-      <c r="T37">
-        <v>4.5</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
       <c r="W37">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.95</v>
+      </c>
+      <c r="AB37">
         <v>0.925</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4612,7 +4612,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4971,7 +4971,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1.181</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>3.75</v>
       </c>
-      <c r="P10">
-        <v>2.4</v>
-      </c>
-      <c r="Q10">
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.925</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.181</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>4.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.875</v>
-      </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>2.3</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.4</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>7.5</v>
-      </c>
-      <c r="L11">
-        <v>5.5</v>
-      </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>1.181</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3369,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
+        <v>2.25</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.6</v>
       </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
         <v>36</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10">
+        <v>2.3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>2.3</v>
+      </c>
+      <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>3.75</v>
+      </c>
+      <c r="P10">
+        <v>2.4</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>7.5</v>
-      </c>
-      <c r="L10">
-        <v>5.5</v>
-      </c>
-      <c r="M10">
-        <v>1.25</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>1.181</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U10">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC10">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1.181</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
         <v>3.75</v>
       </c>
-      <c r="P11">
-        <v>2.4</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
+        <v>1.925</v>
+      </c>
+      <c r="V11">
+        <v>1.925</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>0.181</v>
+      </c>
+      <c r="Z11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>1.875</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>4.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>1.3</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>0.875</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4.2</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5125</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>1.181</v>
+      </c>
+      <c r="O56">
         <v>7</v>
       </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1.125</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
         <v>8.5</v>
       </c>
-      <c r="P56">
-        <v>13</v>
-      </c>
       <c r="Q56">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q57">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>5.25</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3.25</v>
+      </c>
+      <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
         <v>1.825</v>
       </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3.6</v>
       </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
       <c r="M21">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
+        <v>2.6</v>
+      </c>
+      <c r="O21">
+        <v>3.75</v>
+      </c>
+      <c r="P21">
+        <v>2.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
+        <v>2.025</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.25</v>
-      </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q56">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>5.25</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
       <c r="W56">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>1.181</v>
+      </c>
+      <c r="O57">
         <v>7</v>
       </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>1.125</v>
-      </c>
-      <c r="O57">
+      <c r="P57">
         <v>8.5</v>
       </c>
-      <c r="P57">
-        <v>13</v>
-      </c>
       <c r="Q57">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6228613</v>
+        <v>6228611</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3811,76 +3811,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3888,7 +3888,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6228611</v>
+        <v>6228613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3900,76 +3900,76 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K39">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
+        <v>2.25</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.6</v>
       </c>
-      <c r="N39">
-        <v>1.5</v>
-      </c>
-      <c r="O39">
-        <v>3.8</v>
-      </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,56 +4612,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>4.5</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
         <v>1.85</v>
       </c>
-      <c r="T47">
-        <v>4</v>
-      </c>
-      <c r="U47">
-        <v>1.975</v>
-      </c>
-      <c r="V47">
-        <v>1.875</v>
-      </c>
       <c r="W47">
         <v>-1</v>
       </c>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,55 +4701,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>1.4</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>1.4</v>
+      </c>
+      <c r="Q48">
+        <v>1.25</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>2.55</v>
-      </c>
-      <c r="N48">
-        <v>2.15</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>2.8</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>1.95</v>
-      </c>
-      <c r="S48">
-        <v>1.9</v>
-      </c>
-      <c r="T48">
-        <v>4.5</v>
-      </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>1.181</v>
+      </c>
+      <c r="O56">
         <v>7</v>
       </c>
-      <c r="M56">
-        <v>10</v>
-      </c>
-      <c r="N56">
-        <v>1.125</v>
-      </c>
-      <c r="O56">
+      <c r="P56">
         <v>8.5</v>
       </c>
-      <c r="P56">
-        <v>13</v>
-      </c>
       <c r="Q56">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N57">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O57">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q57">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.875</v>
+      </c>
+      <c r="T57">
+        <v>5</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
-        <v>5.25</v>
-      </c>
-      <c r="U57">
-        <v>1.9</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2197,7 +2197,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6228598</v>
+        <v>6228597</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2209,76 +2209,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3.6</v>
       </c>
-      <c r="L20">
-        <v>4.2</v>
-      </c>
       <c r="M20">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
+        <v>2.6</v>
+      </c>
+      <c r="O20">
+        <v>3.75</v>
+      </c>
+      <c r="P20">
+        <v>2.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="O20">
-        <v>4.5</v>
-      </c>
-      <c r="P20">
-        <v>1.55</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.25</v>
-      </c>
       <c r="U20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2286,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6228597</v>
+        <v>6228598</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2298,76 +2298,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N21">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>3.25</v>
+      </c>
+      <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
         <v>1.825</v>
       </c>
-      <c r="S21">
-        <v>2.025</v>
-      </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4.2</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5125</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U26">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3087,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6228605</v>
+        <v>6228606</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3099,40 +3099,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>1.1</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>15</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P30">
-        <v>1.142</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
         <v>1.85</v>
@@ -3144,19 +3144,19 @@
         <v>3.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y30">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>0.8500000000000001</v>
@@ -3165,10 +3165,10 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3176,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6228606</v>
+        <v>6228605</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3188,40 +3188,40 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.1</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>1.909</v>
+        <v>1.142</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R31">
         <v>1.85</v>
@@ -3233,19 +3233,19 @@
         <v>3.75</v>
       </c>
       <c r="U31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z31">
         <v>0.8500000000000001</v>
@@ -3254,10 +3254,10 @@
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K54">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L54">
+        <v>3.75</v>
+      </c>
+      <c r="M54">
+        <v>2.7</v>
+      </c>
+      <c r="N54">
+        <v>2.1</v>
+      </c>
+      <c r="O54">
         <v>4.2</v>
       </c>
-      <c r="M54">
-        <v>1.5</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>4.5</v>
-      </c>
       <c r="P54">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y54">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K55">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P55">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+      <c r="U55">
         <v>1.925</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="T55">
-        <v>4.25</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="56" spans="1:29">

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,16 +109,16 @@
     <t>Hougang United FC</t>
   </si>
   <si>
+    <t>Albirex Niigata Singapore</t>
+  </si>
+  <si>
     <t>Young Lions</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
-  </si>
-  <si>
-    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>1.222</v>
+      </c>
+      <c r="L4">
+        <v>5.75</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>1.25</v>
+      </c>
+      <c r="O4">
+        <v>5.5</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1.75</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.975</v>
+      </c>
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
+        <v>3.4</v>
+      </c>
+      <c r="L5">
+        <v>4.1</v>
+      </c>
+      <c r="M5">
+        <v>1.727</v>
+      </c>
+      <c r="N5">
+        <v>4.5</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5">
+        <v>1.533</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.925</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>1.222</v>
-      </c>
-      <c r="L5">
-        <v>5.75</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>1.25</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5">
-        <v>-1.75</v>
-      </c>
-      <c r="R5">
-        <v>1.875</v>
-      </c>
-      <c r="S5">
-        <v>1.975</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>2.025</v>
-      </c>
-      <c r="W5">
-        <v>0.25</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.875</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N9">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q9">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>3.5</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6228589</v>
+        <v>6228590</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1319,76 +1319,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M10">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>1.181</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>3.75</v>
       </c>
-      <c r="P10">
-        <v>2.4</v>
-      </c>
-      <c r="Q10">
+      <c r="U10">
+        <v>1.925</v>
+      </c>
+      <c r="V10">
+        <v>1.925</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>0.181</v>
+      </c>
+      <c r="Z10">
         <v>0</v>
       </c>
-      <c r="R10">
-        <v>1.875</v>
-      </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>4.25</v>
-      </c>
-      <c r="U10">
-        <v>1.875</v>
-      </c>
-      <c r="V10">
-        <v>1.975</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.875</v>
-      </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6228590</v>
+        <v>6228589</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1408,76 +1408,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>2.3</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>3.75</v>
+      </c>
+      <c r="P11">
+        <v>2.4</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>7.5</v>
-      </c>
-      <c r="L11">
-        <v>5.5</v>
-      </c>
-      <c r="M11">
-        <v>1.25</v>
-      </c>
-      <c r="N11">
-        <v>10</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="P11">
-        <v>1.181</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2031,10 +2031,10 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>4.2</v>
       </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
       <c r="P22">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q22">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z22">
+        <v>-0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5125</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2565,10 +2565,10 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2832,10 +2832,10 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
+        <v>1.875</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
         <v>1.925</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.925</v>
       </c>
-      <c r="T29">
-        <v>4.25</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
+        <v>0.875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.925</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3265,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6915906</v>
+        <v>6228033</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3277,76 +3277,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M32">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N32">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>3.75</v>
+      </c>
+      <c r="U32">
         <v>1.925</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>1.925</v>
       </c>
-      <c r="T32">
-        <v>4</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6228033</v>
+        <v>6915906</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3366,76 +3366,76 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>3</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K33">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2.6</v>
+      </c>
+      <c r="N33">
+        <v>2.05</v>
+      </c>
+      <c r="O33">
         <v>4.5</v>
       </c>
-      <c r="M33">
-        <v>3.75</v>
-      </c>
-      <c r="N33">
-        <v>1.8</v>
-      </c>
-      <c r="O33">
-        <v>4.2</v>
-      </c>
       <c r="P33">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3633,10 +3633,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>32</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -3811,7 +3811,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6228615</v>
+        <v>6228036</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4256,76 +4256,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
         <v>4</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4333,7 +4333,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6228036</v>
+        <v>6228615</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4345,76 +4345,76 @@
         <v>45142.36458333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T44">
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4701,10 +4701,10 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L52">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -109,10 +109,10 @@
     <t>Hougang United FC</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>Young Lions</t>
   </si>
   <si>
-    <t>Young Lions</t>
+    <t>Albirex Niigata Singapore</t>
   </si>
   <si>
     <t>DPMM FC</t>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -788,73 +788,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>3.4</v>
+      </c>
+      <c r="L4">
+        <v>4.1</v>
+      </c>
+      <c r="M4">
+        <v>1.727</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>1.533</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.85</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.925</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>1.222</v>
-      </c>
-      <c r="L4">
-        <v>5.75</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>1.25</v>
-      </c>
-      <c r="O4">
-        <v>5.5</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>-1.75</v>
-      </c>
-      <c r="R4">
-        <v>1.875</v>
-      </c>
-      <c r="S4">
-        <v>1.975</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
-      <c r="W4">
-        <v>0.25</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>0.875</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228586</v>
+        <v>6228585</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -877,73 +877,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>1.222</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>1.25</v>
+      </c>
+      <c r="O5">
+        <v>5.5</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>-1.75</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.975</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>3.4</v>
-      </c>
-      <c r="L5">
-        <v>4.1</v>
-      </c>
-      <c r="M5">
-        <v>1.727</v>
-      </c>
-      <c r="N5">
-        <v>4.5</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5">
-        <v>1.533</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1144,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1322,7 +1322,7 @@
         <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1678,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -1856,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>45114.36458333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2657,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3188,7 +3188,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3277,7 +3277,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3633,10 +3633,10 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -3811,7 +3811,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3989,7 +3989,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4170,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -4526,7 +4526,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4701,7 +4701,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
@@ -5060,7 +5060,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5149,7 +5149,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5223,7 +5223,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7094656</v>
+        <v>7098763</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5235,76 +5235,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1.85</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
         <v>1.925</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.925</v>
       </c>
-      <c r="T54">
-        <v>4.25</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5312,7 +5312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5324,76 +5324,76 @@
         <v>45184.36458333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="L55">
+        <v>3.75</v>
+      </c>
+      <c r="M55">
+        <v>2.7</v>
+      </c>
+      <c r="N55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
         <v>4.2</v>
       </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>4.5</v>
-      </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5502,7 +5502,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -115,10 +115,10 @@
     <t>Albirex Niigata Singapore</t>
   </si>
   <si>
-    <t>DPMM FC</t>
+    <t>Lion City Sailors FC</t>
   </si>
   <si>
-    <t>Lion City Sailors FC</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -610,7 +610,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -966,73 +966,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1055,73 +1055,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2.4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6228028</v>
+        <v>6228588</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1141,58 +1141,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>1.083</v>
+        <v>1.333</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>6.25</v>
       </c>
       <c r="N8">
-        <v>1.142</v>
+        <v>1.615</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P8">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.1419999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,16 +1201,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6228588</v>
+        <v>6228028</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1230,58 +1230,58 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>1.333</v>
+        <v>1.083</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>1.615</v>
+        <v>1.142</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>0.615</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1290,16 +1290,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1586,13 +1586,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1601,43 +1601,43 @@
         <v>39</v>
       </c>
       <c r="K13">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,16 +1646,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1663,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1675,13 +1675,13 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1690,43 +1690,43 @@
         <v>39</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q14">
-        <v>-1.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,16 +1735,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2019,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6228030</v>
+        <v>6228596</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2031,55 +2031,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>1.25</v>
+        <v>1.062</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O18">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="P18">
-        <v>1.222</v>
+        <v>1.083</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2088,16 +2088,16 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.222</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2108,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6228596</v>
+        <v>6228030</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2120,55 +2120,55 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
       <c r="K19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>1.062</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="P19">
-        <v>1.083</v>
+        <v>1.222</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2177,16 +2177,16 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.08299999999999996</v>
+        <v>0.222</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2387,49 +2387,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2444,19 +2444,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2464,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2476,49 +2476,49 @@
         <v>45113.36458333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>4.2</v>
       </c>
-      <c r="M23">
-        <v>1.5</v>
-      </c>
-      <c r="N23">
-        <v>7.5</v>
-      </c>
-      <c r="O23">
-        <v>4.75</v>
-      </c>
       <c r="P23">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q23">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U23">
         <v>2</v>
@@ -2533,19 +2533,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z23">
+        <v>-0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5125</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6228602</v>
+        <v>6228032</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2743,19 +2743,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>1.2</v>
@@ -2767,52 +2767,52 @@
         <v>9</v>
       </c>
       <c r="N26">
-        <v>1.125</v>
+        <v>1.142</v>
       </c>
       <c r="O26">
         <v>7.5</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2820,7 +2820,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6228032</v>
+        <v>6228602</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2832,19 +2832,19 @@
         <v>45118.36458333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.2</v>
@@ -2856,52 +2856,52 @@
         <v>9</v>
       </c>
       <c r="N27">
-        <v>1.142</v>
+        <v>1.125</v>
       </c>
       <c r="O27">
         <v>7.5</v>
       </c>
       <c r="P27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6228604</v>
+        <v>6228603</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2921,76 +2921,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
+        <v>1.875</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>4.25</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
+        <v>-1</v>
+      </c>
+      <c r="AA28">
+        <v>0.875</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6228603</v>
+        <v>6228604</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3010,76 +3010,76 @@
         <v>45119.36458333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3280,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -3366,7 +3366,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3455,7 +3455,7 @@
         <v>45127.36458333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>37</v>
@@ -3900,7 +3900,7 @@
         <v>45135.36458333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -4078,7 +4078,7 @@
         <v>45138.36458333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -4259,7 +4259,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6228619</v>
+        <v>6228618</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4612,55 +4612,55 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
       <c r="K47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>1.4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>5.25</v>
+      </c>
+      <c r="P47">
+        <v>1.4</v>
+      </c>
+      <c r="Q47">
+        <v>1.25</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>2.55</v>
-      </c>
-      <c r="N47">
-        <v>2.15</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.8</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
-      </c>
-      <c r="T47">
-        <v>4.5</v>
-      </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4669,19 +4669,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4689,7 +4689,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6228618</v>
+        <v>6228619</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4701,56 +4701,56 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P48">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>4.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>4</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
         <v>-1</v>
       </c>
@@ -4758,19 +4758,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6228622</v>
+        <v>6228621</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4968,40 +4968,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R51">
         <v>1.975</v>
@@ -5010,34 +5010,34 @@
         <v>1.875</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5045,7 +5045,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6228621</v>
+        <v>6228622</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5057,40 +5057,40 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M52">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
         <v>1.975</v>
@@ -5099,34 +5099,34 @@
         <v>1.875</v>
       </c>
       <c r="T52">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5401,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7094657</v>
+        <v>7099479</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5413,58 +5413,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N56">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="O56">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P56">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Q56">
-        <v>-2.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.875</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>5.25</v>
-      </c>
-      <c r="U56">
-        <v>1.9</v>
-      </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
       <c r="W56">
-        <v>0.181</v>
+        <v>0.125</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5473,16 +5473,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5490,7 +5490,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7099479</v>
+        <v>7094657</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5502,58 +5502,58 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>39</v>
       </c>
       <c r="K57">
-        <v>1.166</v>
+        <v>1.2</v>
       </c>
       <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>9</v>
+      </c>
+      <c r="N57">
+        <v>1.181</v>
+      </c>
+      <c r="O57">
         <v>7</v>
       </c>
-      <c r="M57">
-        <v>10</v>
-      </c>
-      <c r="N57">
-        <v>1.125</v>
-      </c>
-      <c r="O57">
+      <c r="P57">
         <v>8.5</v>
       </c>
-      <c r="P57">
-        <v>13</v>
-      </c>
       <c r="Q57">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.125</v>
+        <v>0.181</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5562,16 +5562,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore Premier League/Singapore Premier League.xlsx
+++ b/Singapore Premier League/Singapore Premier League.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>Div</t>
-  </si>
-  <si>
-    <t>Div Original Name</t>
   </si>
   <si>
     <t>Date</t>
@@ -109,16 +106,16 @@
     <t>Hougang United FC</t>
   </si>
   <si>
+    <t>Albirex Niigata Singapore</t>
+  </si>
+  <si>
     <t>Young Lions</t>
   </si>
   <si>
-    <t>Albirex Niigata Singapore</t>
+    <t>DPMM FC</t>
   </si>
   <si>
     <t>Lion City Sailors FC</t>
-  </si>
-  <si>
-    <t>DPMM FC</t>
   </si>
   <si>
     <t>Tampines Rovers FC</t>
@@ -498,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC57"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,11 +583,8 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -598,88 +592,85 @@
         <v>6228026</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45078.36458333334</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45078.36458333334</v>
-      </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
         <v>33</v>
       </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
+        <v>1.4</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2">
-        <v>1.4</v>
-      </c>
       <c r="N2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2">
+        <v>1.45</v>
+      </c>
+      <c r="P2">
+        <v>1.25</v>
+      </c>
+      <c r="Q2">
+        <v>1.875</v>
+      </c>
+      <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
         <v>4.5</v>
       </c>
-      <c r="P2">
-        <v>1.45</v>
-      </c>
-      <c r="Q2">
-        <v>1.25</v>
-      </c>
-      <c r="R2">
-        <v>1.875</v>
-      </c>
-      <c r="S2">
-        <v>1.975</v>
-      </c>
       <c r="T2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y2">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="Z2">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -687,153 +678,150 @@
         <v>6228584</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
         <v>45080.29166666666</v>
       </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>-1</v>
+      </c>
+      <c r="Q3">
+        <v>1.825</v>
+      </c>
+      <c r="R3">
+        <v>2.025</v>
+      </c>
+      <c r="S3">
+        <v>3.75</v>
+      </c>
+      <c r="T3">
+        <v>1.975</v>
+      </c>
+      <c r="U3">
+        <v>1.875</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>1.025</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6228585</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45083.36458333334</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3">
-        <v>1.5</v>
-      </c>
-      <c r="L3">
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>1.222</v>
+      </c>
+      <c r="K4">
+        <v>5.75</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>1.25</v>
+      </c>
+      <c r="N4">
+        <v>5.5</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>-1.75</v>
+      </c>
+      <c r="Q4">
+        <v>1.875</v>
+      </c>
+      <c r="R4">
+        <v>1.975</v>
+      </c>
+      <c r="S4">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>-1</v>
-      </c>
-      <c r="R3">
+      <c r="T4">
         <v>1.825</v>
       </c>
-      <c r="S3">
+      <c r="U4">
         <v>2.025</v>
       </c>
-      <c r="T3">
-        <v>3.75</v>
-      </c>
-      <c r="U3">
-        <v>1.975</v>
-      </c>
-      <c r="V3">
-        <v>1.875</v>
-      </c>
-      <c r="W3">
-        <v>0.5</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.825</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
-      <c r="AC3">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6228586</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45083.36458333334</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>3.4</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.727</v>
-      </c>
-      <c r="N4">
-        <v>4.5</v>
-      </c>
-      <c r="O4">
-        <v>4.5</v>
-      </c>
-      <c r="P4">
-        <v>1.533</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.85</v>
-      </c>
-      <c r="T4">
-        <v>3.5</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>0.25</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -842,289 +830,277 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6228585</v>
+        <v>6228586</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
         <v>45083.36458333334</v>
       </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
         <v>36</v>
       </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
       <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>3.4</v>
       </c>
       <c r="K5">
-        <v>1.222</v>
+        <v>4.1</v>
       </c>
       <c r="L5">
-        <v>5.75</v>
+        <v>1.727</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="O5">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>3.5</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>1.925</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
-      <c r="AC5">
-        <v>1.025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6228027</v>
+        <v>6228587</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
         <v>45084.36458333334</v>
       </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>2.4</v>
       </c>
       <c r="K6">
+        <v>3.75</v>
+      </c>
+      <c r="L6">
+        <v>2.3</v>
+      </c>
+      <c r="M6">
         <v>2.4</v>
       </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>2.25</v>
-      </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>1.975</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>3.5</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
-      <c r="AC6">
-        <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6228587</v>
+        <v>6228027</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
         <v>45084.36458333334</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>2.4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>2.25</v>
+      </c>
+      <c r="M7">
+        <v>2.7</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>2.05</v>
+      </c>
+      <c r="P7">
+        <v>0.25</v>
+      </c>
+      <c r="Q7">
+        <v>1.925</v>
+      </c>
+      <c r="R7">
+        <v>1.925</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>1.95</v>
+      </c>
+      <c r="U7">
+        <v>1.9</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7">
-        <v>2.4</v>
-      </c>
-      <c r="L7">
-        <v>3.75</v>
-      </c>
-      <c r="M7">
-        <v>2.3</v>
-      </c>
-      <c r="N7">
-        <v>2.4</v>
-      </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>2.3</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.975</v>
-      </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>3.5</v>
-      </c>
-      <c r="U7">
-        <v>1.85</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.3</v>
+        <v>0.4625</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1132,67 +1108,67 @@
         <v>6228588</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
         <v>45087.29166666666</v>
       </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>39</v>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>1.333</v>
       </c>
       <c r="K8">
-        <v>1.333</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>1.615</v>
       </c>
       <c r="N8">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>-1</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>2.05</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>0.615</v>
       </c>
       <c r="W8">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1201,19 +1177,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1221,88 +1194,85 @@
         <v>6228028</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
         <v>45087.29166666666</v>
       </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
         <v>31</v>
       </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>1.083</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>1.142</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>-2.25</v>
+      </c>
+      <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>4</v>
       </c>
-      <c r="I9">
+      <c r="T9">
+        <v>1.875</v>
+      </c>
+      <c r="U9">
+        <v>1.975</v>
+      </c>
+      <c r="V9">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>1.083</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1.142</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>-2.25</v>
-      </c>
-      <c r="R9">
-        <v>1.85</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>4</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
-      <c r="W9">
-        <v>0.1419999999999999</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1310,88 +1280,85 @@
         <v>6228590</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
         <v>45088.29166666666</v>
       </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>7.5</v>
       </c>
       <c r="K10">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="L10">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="M10">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="P10">
-        <v>1.181</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="T10">
-        <v>3.75</v>
+        <v>1.925</v>
       </c>
       <c r="U10">
         <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.925</v>
+        <v>-1</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y10">
-        <v>0.181</v>
+        <v>0.95</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
         <v>0.925</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1399,67 +1366,67 @@
         <v>6228589</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45088.29166666666</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45088.29166666666</v>
-      </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>2.3</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11">
+      <c r="L11">
         <v>2.3</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
       </c>
       <c r="M11">
         <v>2.3</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="P11">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
+        <v>4.25</v>
+      </c>
+      <c r="T11">
         <v>1.875</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1.975</v>
       </c>
-      <c r="T11">
-        <v>4.25</v>
-      </c>
-      <c r="U11">
-        <v>1.875</v>
-      </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.3</v>
       </c>
       <c r="W11">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1468,19 +1435,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA11">
         <v>0.875</v>
       </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
       <c r="AB11">
-        <v>0.875</v>
-      </c>
-      <c r="AC11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1488,156 +1452,153 @@
         <v>6228591</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45100.36458333334</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45100.36458333334</v>
-      </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12" t="s">
-        <v>38</v>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12">
+        <v>2.1</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L12">
+        <v>2.6</v>
+      </c>
+      <c r="M12">
+        <v>2.5</v>
+      </c>
+      <c r="N12">
+        <v>3.75</v>
+      </c>
+      <c r="O12">
+        <v>2.3</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
         <v>4</v>
       </c>
-      <c r="M12">
-        <v>2.6</v>
-      </c>
-      <c r="N12">
-        <v>2.5</v>
-      </c>
-      <c r="O12">
-        <v>3.75</v>
-      </c>
-      <c r="P12">
-        <v>2.3</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
       <c r="T12">
-        <v>4</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y12">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
-      </c>
-      <c r="AC12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6228593</v>
+        <v>6228592</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
         <v>45101.29166666666</v>
       </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>39</v>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>1.166</v>
       </c>
       <c r="K13">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>1.125</v>
       </c>
       <c r="N13">
-        <v>1.444</v>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q13">
-        <v>-1.25</v>
+        <v>1.95</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>1.925</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>0.125</v>
       </c>
       <c r="W13">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1646,87 +1607,84 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6228592</v>
+        <v>6228593</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
         <v>45101.29166666666</v>
       </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>39</v>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>1.444</v>
       </c>
       <c r="K14">
-        <v>1.166</v>
+        <v>4.5</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>4.5</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>-1.25</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>3.25</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>1.875</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>0.444</v>
       </c>
       <c r="W14">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1735,19 +1693,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1755,67 +1710,67 @@
         <v>6228029</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
         <v>45102.29166666666</v>
       </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>39</v>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>1.4</v>
       </c>
       <c r="K15">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L15">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M15">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="N15">
-        <v>1.333</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>-1.5</v>
       </c>
       <c r="Q15">
-        <v>-1.5</v>
+        <v>1.8</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>0.333</v>
       </c>
       <c r="W15">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1824,19 +1779,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
         <v>0.8999999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1844,88 +1796,85 @@
         <v>6228594</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2">
         <v>45104.36458333334</v>
       </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16">
+        <v>3.4</v>
       </c>
       <c r="K16">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
+        <v>1.8</v>
+      </c>
+      <c r="M16">
+        <v>3.2</v>
+      </c>
+      <c r="N16">
         <v>3.75</v>
       </c>
-      <c r="M16">
-        <v>1.8</v>
-      </c>
-      <c r="N16">
-        <v>3.2</v>
-      </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="P16">
-        <v>1.909</v>
+        <v>0.5</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
+        <v>1.85</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="T16">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1933,67 +1882,67 @@
         <v>6228595</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
         <v>45105.36458333334</v>
       </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17">
+        <v>1.85</v>
       </c>
       <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.3</v>
+      </c>
+      <c r="M17">
+        <v>1.909</v>
+      </c>
+      <c r="N17">
+        <v>3.8</v>
+      </c>
+      <c r="O17">
+        <v>3.1</v>
+      </c>
+      <c r="P17">
+        <v>-0.5</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
         <v>1.85</v>
       </c>
-      <c r="L17">
+      <c r="S17">
         <v>3.75</v>
       </c>
-      <c r="M17">
-        <v>3.3</v>
-      </c>
-      <c r="N17">
-        <v>1.909</v>
-      </c>
-      <c r="O17">
-        <v>3.8</v>
-      </c>
-      <c r="P17">
-        <v>3.1</v>
-      </c>
-      <c r="Q17">
-        <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
       <c r="T17">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>0.909</v>
       </c>
       <c r="W17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2002,19 +1951,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2022,88 +1968,85 @@
         <v>6228596</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
         <v>45108.29166666666</v>
       </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>38</v>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
       </c>
       <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>1.062</v>
+      </c>
+      <c r="M18">
         <v>21</v>
       </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>1.062</v>
-      </c>
       <c r="N18">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>1.083</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1.825</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="U18">
-        <v>1.75</v>
+        <v>2.125</v>
       </c>
       <c r="V18">
-        <v>2.125</v>
+        <v>-1</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>0.825</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB18">
-        <v>0.75</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2111,88 +2054,85 @@
         <v>6228030</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
         <v>45108.29166666666</v>
       </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
       <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19">
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>1.25</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>6.5</v>
+      </c>
+      <c r="O19">
+        <v>1.222</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>1.875</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>4.25</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>0.222</v>
+      </c>
+      <c r="Y19">
+        <v>0.875</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>7</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <v>1.25</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
-      </c>
-      <c r="O19">
-        <v>6.5</v>
-      </c>
-      <c r="P19">
-        <v>1.222</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.975</v>
-      </c>
-      <c r="T19">
-        <v>4.25</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>0.222</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB19">
-        <v>1</v>
-      </c>
-      <c r="AC19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2200,88 +2140,85 @@
         <v>6228597</v>
       </c>
       <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45109.29166666666</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45109.29166666666</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
-        <v>38</v>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>2.5</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>1.825</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>0.825</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
-      <c r="AC20">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2289,266 +2226,257 @@
         <v>6228598</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2">
         <v>45109.29166666666</v>
       </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>3.6</v>
+      </c>
+      <c r="K21">
+        <v>4.2</v>
+      </c>
+      <c r="L21">
+        <v>1.666</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>4.5</v>
+      </c>
+      <c r="O21">
+        <v>1.55</v>
+      </c>
+      <c r="P21">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>3.6</v>
-      </c>
-      <c r="L21">
-        <v>4.2</v>
-      </c>
-      <c r="M21">
-        <v>1.666</v>
-      </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="O21">
-        <v>4.5</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
       <c r="Q21">
-        <v>1</v>
+        <v>1.85</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.025</v>
       </c>
       <c r="U21">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>-1</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
         <v>0.825</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6228599</v>
+        <v>6228600</v>
       </c>
       <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45113.36458333334</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45113.36458333334</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
+      <c r="G22">
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>3.2</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1.8</v>
+      </c>
+      <c r="M22">
+        <v>3.4</v>
+      </c>
+      <c r="N22">
+        <v>4.2</v>
+      </c>
+      <c r="O22">
+        <v>1.8</v>
+      </c>
+      <c r="P22">
+        <v>0.75</v>
+      </c>
+      <c r="Q22">
+        <v>1.825</v>
+      </c>
+      <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
+        <v>4.5</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
+        <v>-1</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>0.8</v>
+      </c>
+      <c r="Y22">
+        <v>0.825</v>
+      </c>
+      <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22">
-        <v>4.75</v>
-      </c>
-      <c r="L22">
-        <v>4.2</v>
-      </c>
-      <c r="M22">
-        <v>1.5</v>
-      </c>
-      <c r="N22">
-        <v>7.5</v>
-      </c>
-      <c r="O22">
-        <v>4.75</v>
-      </c>
-      <c r="P22">
-        <v>1.3</v>
-      </c>
-      <c r="Q22">
-        <v>1.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.85</v>
-      </c>
-      <c r="T22">
-        <v>3.75</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.85</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>0.3</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
         <v>-1</v>
       </c>
-      <c r="AC22">
-        <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6228600</v>
+        <v>6228599</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
         <v>45113.36458333334</v>
       </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
+      <c r="J23">
+        <v>4.75</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="M23">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="P23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>3.75</v>
       </c>
       <c r="T23">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>-1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2556,88 +2484,85 @@
         <v>6228031</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2">
         <v>45114.36458333334</v>
       </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
         <v>33</v>
       </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
         <v>4</v>
       </c>
-      <c r="J24" t="s">
-        <v>38</v>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
       </c>
       <c r="K24">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L24">
+        <v>1.083</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
         <v>11</v>
       </c>
-      <c r="M24">
-        <v>1.083</v>
-      </c>
-      <c r="N24">
-        <v>19</v>
-      </c>
       <c r="O24">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="P24">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="T24">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="Y24">
-        <v>0.1000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
-      </c>
-      <c r="AC24">
         <v>0.8999999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2645,88 +2570,85 @@
         <v>6228601</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="2">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
         <v>45115.29166666666</v>
       </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L25">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
         <v>1.2</v>
       </c>
-      <c r="N25">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>6</v>
-      </c>
       <c r="P25">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R25">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>1.975</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X25">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z25">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
         <v>0.875</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2734,88 +2656,85 @@
         <v>6228032</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
         <v>45118.36458333334</v>
       </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>38</v>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26">
+        <v>1.2</v>
       </c>
       <c r="K26">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>1.142</v>
       </c>
       <c r="N26">
-        <v>1.142</v>
+        <v>7.5</v>
       </c>
       <c r="O26">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>-2.25</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>1.825</v>
       </c>
       <c r="R26">
+        <v>2.025</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
         <v>1.825</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>2.025</v>
       </c>
-      <c r="T26">
-        <v>4</v>
-      </c>
-      <c r="U26">
-        <v>1.825</v>
-      </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>-1</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Y26">
-        <v>12</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
-      <c r="AC26">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2823,67 +2742,67 @@
         <v>6228602</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
         <v>45118.36458333334</v>
       </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27" t="s">
-        <v>39</v>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>1.2</v>
       </c>
       <c r="K27">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>1.125</v>
       </c>
       <c r="N27">
-        <v>1.125</v>
+        <v>7.5</v>
       </c>
       <c r="O27">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>-2.5</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>4.25</v>
       </c>
       <c r="T27">
-        <v>4.25</v>
+        <v>1.975</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>0.125</v>
       </c>
       <c r="W27">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2892,19 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
-      </c>
-      <c r="AC27">
         <v>0.875</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2912,88 +2828,85 @@
         <v>6228603</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
         <v>45119.36458333334</v>
       </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28">
+        <v>1.833</v>
       </c>
       <c r="K28">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="L28">
+        <v>3.25</v>
+      </c>
+      <c r="M28">
+        <v>1.909</v>
+      </c>
+      <c r="N28">
         <v>3.8</v>
       </c>
-      <c r="M28">
-        <v>3.25</v>
-      </c>
-      <c r="N28">
-        <v>1.909</v>
-      </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>-0.5</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>1.975</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>3.5</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>1.925</v>
       </c>
       <c r="U28">
         <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
-      </c>
-      <c r="AC28">
         <v>0.925</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3001,67 +2914,67 @@
         <v>6228604</v>
       </c>
       <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45119.36458333334</v>
+      </c>
+      <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45119.36458333334</v>
-      </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
         <v>31</v>
       </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
       <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>1.4</v>
       </c>
       <c r="K29">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L29">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M29">
+        <v>1.363</v>
+      </c>
+      <c r="N29">
+        <v>5.25</v>
+      </c>
+      <c r="O29">
         <v>5.5</v>
       </c>
-      <c r="N29">
-        <v>1.363</v>
-      </c>
-      <c r="O29">
-        <v>5.25</v>
-      </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>1.925</v>
       </c>
       <c r="R29">
         <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>4.25</v>
       </c>
       <c r="T29">
-        <v>4.25</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>0.363</v>
       </c>
       <c r="W29">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3073,16 +2986,13 @@
         <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3090,88 +3000,85 @@
         <v>6228606</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2">
         <v>45122.29166666666</v>
       </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
       <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>40</v>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>3.4</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L30">
+        <v>1.727</v>
+      </c>
+      <c r="M30">
+        <v>2.875</v>
+      </c>
+      <c r="N30">
         <v>4.2</v>
       </c>
-      <c r="M30">
-        <v>1.727</v>
-      </c>
-      <c r="N30">
-        <v>2.875</v>
-      </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>0.5</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>1.85</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB30">
-        <v>0.475</v>
-      </c>
-      <c r="AC30">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3179,88 +3086,85 @@
         <v>6228605</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
         <v>45122.29166666666</v>
       </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
-        <v>38</v>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
       </c>
       <c r="K31">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="M31">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="N31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>1.142</v>
       </c>
       <c r="P31">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>3.75</v>
+      </c>
+      <c r="T31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>3.75</v>
-      </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y31">
-        <v>0.1419999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3268,67 +3172,67 @@
         <v>6228033</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="2">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2">
         <v>45123.29166666666</v>
       </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
         <v>33</v>
       </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
       <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" t="s">
-        <v>39</v>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32">
+        <v>1.6</v>
       </c>
       <c r="K32">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="L32">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
+        <v>1.8</v>
+      </c>
+      <c r="N32">
+        <v>4.2</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
+        <v>-0.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.85</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
         <v>3.75</v>
       </c>
-      <c r="N32">
-        <v>1.8</v>
-      </c>
-      <c r="O32">
-        <v>4.2</v>
-      </c>
-      <c r="P32">
-        <v>3.1</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
-      </c>
-      <c r="R32">
-        <v>1.85</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
       <c r="T32">
-        <v>3.75</v>
+        <v>1.925</v>
       </c>
       <c r="U32">
         <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>0.8</v>
       </c>
       <c r="W32">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3337,19 +3241,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB32">
-        <v>0.4625</v>
-      </c>
-      <c r="AC32">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3357,88 +3258,85 @@
         <v>6915906</v>
       </c>
       <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45123.29166666666</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45123.29166666666</v>
-      </c>
-      <c r="F33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
+      <c r="G33">
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
         <v>3</v>
       </c>
-      <c r="J33" t="s">
-        <v>38</v>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>2.1</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="M33">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="N33">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O33">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>1.925</v>
       </c>
       <c r="R33">
         <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>4</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>-1</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y33">
-        <v>1.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3446,67 +3344,67 @@
         <v>6228034</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="2">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2">
         <v>45127.36458333334</v>
       </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>1.125</v>
       </c>
       <c r="K34">
-        <v>1.125</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>1.09</v>
       </c>
       <c r="N34">
-        <v>1.09</v>
+        <v>10</v>
       </c>
       <c r="O34">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P34">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="Q34">
-        <v>-3</v>
+        <v>1.95</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="T34">
-        <v>4.75</v>
+        <v>1.875</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W34">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3515,19 +3413,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB34">
-        <v>0.4375</v>
-      </c>
-      <c r="AC34">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3535,88 +3430,85 @@
         <v>6228608</v>
       </c>
       <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45128.36458333334</v>
+      </c>
+      <c r="E35" t="s">
         <v>28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45128.36458333334</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="s">
-        <v>30</v>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>38</v>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35">
+        <v>1.8</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L35">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
         <v>3</v>
       </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
       <c r="P35">
-        <v>3</v>
+        <v>-0.5</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>2.025</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>4.25</v>
       </c>
       <c r="T35">
-        <v>4.25</v>
+        <v>1.925</v>
       </c>
       <c r="U35">
         <v>1.925</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>-1</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>1.025</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
-      </c>
-      <c r="AC35">
         <v>0.4625</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3624,67 +3516,67 @@
         <v>6228609</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="2">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2">
         <v>45129.29166666666</v>
       </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s">
         <v>31</v>
       </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
       <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" t="s">
-        <v>39</v>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>1.062</v>
       </c>
       <c r="K36">
-        <v>1.062</v>
+        <v>11</v>
       </c>
       <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>1.055</v>
+      </c>
+      <c r="N36">
         <v>11</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>17</v>
       </c>
-      <c r="N36">
-        <v>1.055</v>
-      </c>
-      <c r="O36">
-        <v>11</v>
-      </c>
       <c r="P36">
-        <v>17</v>
+        <v>-3.25</v>
       </c>
       <c r="Q36">
-        <v>-3.25</v>
+        <v>1.925</v>
       </c>
       <c r="R36">
         <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.925</v>
+        <v>4.5</v>
       </c>
       <c r="T36">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>0.05499999999999994</v>
       </c>
       <c r="W36">
-        <v>0.05499999999999994</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3696,16 +3588,13 @@
         <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3713,88 +3602,85 @@
         <v>6228610</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="2">
+        <v>27</v>
+      </c>
+      <c r="D37" s="2">
         <v>45129.29166666666</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
       </c>
-      <c r="G37" t="s">
-        <v>36</v>
+      <c r="G37">
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
         <v>3</v>
       </c>
-      <c r="J37" t="s">
-        <v>38</v>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <v>1.333</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="N37">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="O37">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>-1.75</v>
       </c>
       <c r="Q37">
-        <v>-1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>1.925</v>
       </c>
       <c r="U37">
         <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>-1</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3802,67 +3688,67 @@
         <v>6228611</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="2">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2">
         <v>45135.36458333334</v>
       </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>6</v>
-      </c>
-      <c r="I38">
         <v>3</v>
       </c>
-      <c r="J38" t="s">
-        <v>39</v>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>1.7</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>1.5</v>
+      </c>
+      <c r="N38">
+        <v>3.8</v>
+      </c>
+      <c r="O38">
+        <v>5.25</v>
+      </c>
+      <c r="P38">
+        <v>-1.25</v>
+      </c>
+      <c r="Q38">
+        <v>1.975</v>
+      </c>
+      <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
         <v>4</v>
       </c>
-      <c r="M38">
-        <v>3.6</v>
-      </c>
-      <c r="N38">
-        <v>1.5</v>
-      </c>
-      <c r="O38">
-        <v>3.8</v>
-      </c>
-      <c r="P38">
-        <v>5.25</v>
-      </c>
-      <c r="Q38">
-        <v>-1.25</v>
-      </c>
-      <c r="R38">
-        <v>1.975</v>
-      </c>
-      <c r="S38">
-        <v>1.875</v>
-      </c>
       <c r="T38">
-        <v>4</v>
+        <v>2.025</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>0.5</v>
       </c>
       <c r="W38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3871,19 +3757,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3891,88 +3774,85 @@
         <v>6228613</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2">
         <v>45135.36458333334</v>
       </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
       <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <v>2.5</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
+        <v>2.25</v>
+      </c>
+      <c r="M39">
+        <v>2.45</v>
+      </c>
+      <c r="N39">
+        <v>3.6</v>
+      </c>
+      <c r="O39">
+        <v>2.3</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
         <v>3.75</v>
       </c>
-      <c r="M39">
-        <v>2.25</v>
-      </c>
-      <c r="N39">
-        <v>2.45</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>2.3</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39">
-        <v>1.85</v>
-      </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>1.925</v>
       </c>
       <c r="U39">
         <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>-1</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
-      </c>
-      <c r="AC39">
         <v>0.925</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3980,88 +3860,85 @@
         <v>6228612</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="2">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2">
         <v>45136.29166666666</v>
       </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
       <c r="F40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
         <v>6</v>
       </c>
-      <c r="J40" t="s">
-        <v>38</v>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>1.333</v>
       </c>
       <c r="M40">
-        <v>1.333</v>
+        <v>5.25</v>
       </c>
       <c r="N40">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="O40">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="P40">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q40">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>-1</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y40">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4069,67 +3946,67 @@
         <v>6228035</v>
       </c>
       <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45138.36458333334</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
         <v>28</v>
       </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45138.36458333334</v>
-      </c>
-      <c r="F41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
+      <c r="G41">
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>1.222</v>
       </c>
       <c r="K41">
-        <v>1.222</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>1.285</v>
       </c>
       <c r="N41">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="O41">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>-1.75</v>
       </c>
       <c r="Q41">
-        <v>-1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="T41">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W41">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
@@ -4138,19 +4015,16 @@
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4158,88 +4032,85 @@
         <v>6228614</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="2">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2">
         <v>45141.36458333334</v>
       </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
         <v>6</v>
       </c>
-      <c r="J42" t="s">
-        <v>38</v>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
       </c>
       <c r="K42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="M42">
-        <v>1.25</v>
+        <v>7.5</v>
       </c>
       <c r="N42">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O42">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="P42">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S42">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>1.925</v>
       </c>
       <c r="U42">
         <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>-1</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y42">
-        <v>0.222</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
-        <v>0.925</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4247,88 +4118,85 @@
         <v>6228036</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="2">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2">
         <v>45142.36458333334</v>
       </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
       <c r="F43" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" t="s">
         <v>33</v>
       </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
       <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
         <v>5</v>
       </c>
-      <c r="J43" t="s">
-        <v>38</v>
+      <c r="I43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <v>2.3</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L43">
+        <v>2.25</v>
+      </c>
+      <c r="M43">
+        <v>2.5</v>
+      </c>
+      <c r="N43">
         <v>4.2</v>
       </c>
-      <c r="M43">
-        <v>2.25</v>
-      </c>
-      <c r="N43">
-        <v>2.5</v>
-      </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="P43">
-        <v>2.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>1.875</v>
       </c>
       <c r="R43">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>4</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y43">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB43">
-        <v>0.95</v>
-      </c>
-      <c r="AC43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4336,67 +4204,67 @@
         <v>6228615</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="2">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2">
         <v>45142.36458333334</v>
       </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
-        <v>39</v>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44">
+        <v>1.909</v>
       </c>
       <c r="K44">
+        <v>4.5</v>
+      </c>
+      <c r="L44">
+        <v>2.75</v>
+      </c>
+      <c r="M44">
         <v>1.909</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>4.5</v>
       </c>
-      <c r="M44">
-        <v>2.75</v>
-      </c>
-      <c r="N44">
-        <v>1.909</v>
-      </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="P44">
-        <v>2.7</v>
+        <v>-0.5</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>1.85</v>
       </c>
-      <c r="T44">
-        <v>4</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>0.909</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4405,19 +4273,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
-      </c>
-      <c r="AC44">
         <v>0.8500000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4425,67 +4290,67 @@
         <v>6228616</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="2">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2">
         <v>45143.29166666666</v>
       </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
       <c r="F45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
         <v>31</v>
       </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
       <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45">
+        <v>1.666</v>
       </c>
       <c r="K45">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="N45">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O45">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>-1.25</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>1.95</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>4.25</v>
       </c>
       <c r="T45">
-        <v>4.25</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W45">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4494,19 +4359,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4514,88 +4376,85 @@
         <v>6228617</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="2">
+        <v>27</v>
+      </c>
+      <c r="D46" s="2">
         <v>45149.36458333334</v>
       </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
       <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
         <v>37</v>
       </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46" t="s">
-        <v>38</v>
+      <c r="J46">
+        <v>10</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="M46">
-        <v>1.181</v>
+        <v>13</v>
       </c>
       <c r="N46">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="O46">
-        <v>7.5</v>
+        <v>1.142</v>
       </c>
       <c r="P46">
-        <v>1.142</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="T46">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>-1</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Y46">
-        <v>0.1419999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB46">
-        <v>0.5</v>
-      </c>
-      <c r="AC46">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4603,88 +4462,85 @@
         <v>6228618</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="2">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2">
         <v>45150.29166666666</v>
       </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
       </c>
       <c r="K47">
         <v>5</v>
       </c>
       <c r="L47">
+        <v>1.4</v>
+      </c>
+      <c r="M47">
         <v>5</v>
       </c>
-      <c r="M47">
+      <c r="N47">
+        <v>5.25</v>
+      </c>
+      <c r="O47">
         <v>1.4</v>
       </c>
-      <c r="N47">
-        <v>5</v>
-      </c>
-      <c r="O47">
-        <v>5.25</v>
-      </c>
       <c r="P47">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>1.975</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y47">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
         <v>0.875</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4692,88 +4548,85 @@
         <v>6228619</v>
       </c>
       <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45150.29166666666</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45150.29166666666</v>
-      </c>
-      <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
+      <c r="G48">
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
         <v>6</v>
       </c>
-      <c r="J48" t="s">
-        <v>38</v>
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <v>2.1</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M48">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P48">
-        <v>2.8</v>
+        <v>-0.25</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>1.95</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="T48">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>-1</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y48">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>1</v>
-      </c>
-      <c r="AC48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4781,88 +4634,85 @@
         <v>6228037</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="2">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2">
         <v>45151.29166666666</v>
       </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
         <v>33</v>
       </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
       <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
         <v>8</v>
       </c>
-      <c r="J49" t="s">
-        <v>38</v>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L49">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="M49">
-        <v>1.444</v>
+        <v>5.75</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="O49">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="P49">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="Q49">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="R49">
+        <v>1.95</v>
+      </c>
+      <c r="S49">
+        <v>4.25</v>
+      </c>
+      <c r="T49">
         <v>1.9</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>1.95</v>
       </c>
-      <c r="T49">
-        <v>4.25</v>
-      </c>
-      <c r="U49">
-        <v>1.9</v>
-      </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>-1</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y49">
-        <v>0.363</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4870,88 +4720,85 @@
         <v>6228620</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="2">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2">
         <v>45156.36458333334</v>
       </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
       <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50" t="s">
-        <v>40</v>
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50">
+        <v>1.25</v>
       </c>
       <c r="K50">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>1.181</v>
       </c>
       <c r="N50">
-        <v>1.181</v>
+        <v>7.5</v>
       </c>
       <c r="O50">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="P50">
-        <v>8</v>
+        <v>-2.25</v>
       </c>
       <c r="Q50">
-        <v>-2.25</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>4.25</v>
       </c>
       <c r="T50">
-        <v>4.25</v>
+        <v>1.975</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X50">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
-      </c>
-      <c r="AC50">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4959,67 +4806,67 @@
         <v>6228621</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="2">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2">
         <v>45157.29166666666</v>
       </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
       <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
         <v>31</v>
       </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
       <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" t="s">
-        <v>39</v>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51">
+        <v>1.363</v>
       </c>
       <c r="K51">
-        <v>1.363</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M51">
-        <v>5.75</v>
+        <v>1.285</v>
       </c>
       <c r="N51">
-        <v>1.285</v>
+        <v>6</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q51">
-        <v>-1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>1.825</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V51">
-        <v>2.025</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W51">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5028,19 +4875,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
         <v>1.025</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5048,88 +4892,85 @@
         <v>6228622</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="2">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2">
         <v>45157.29166666666</v>
       </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52" t="s">
-        <v>40</v>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52">
+        <v>1.727</v>
       </c>
       <c r="K52">
+        <v>4.2</v>
+      </c>
+      <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
         <v>1.727</v>
       </c>
-      <c r="L52">
-        <v>4.2</v>
-      </c>
-      <c r="M52">
-        <v>3.4</v>
-      </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="O52">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>1.975</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.875</v>
+        <v>4.25</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>-1</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X52">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>1</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5137,266 +4978,257 @@
         <v>6228623</v>
       </c>
       <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45158.29166666666</v>
+      </c>
+      <c r="E53" t="s">
         <v>28</v>
       </c>
-      <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45158.29166666666</v>
-      </c>
       <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
         <v>5</v>
       </c>
-      <c r="J53" t="s">
-        <v>38</v>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
       </c>
       <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>1.166</v>
+      </c>
+      <c r="M53">
         <v>9</v>
       </c>
-      <c r="L53">
-        <v>7</v>
-      </c>
-      <c r="M53">
+      <c r="N53">
+        <v>7.5</v>
+      </c>
+      <c r="O53">
         <v>1.166</v>
       </c>
-      <c r="N53">
-        <v>9</v>
-      </c>
-      <c r="O53">
-        <v>7.5</v>
-      </c>
       <c r="P53">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.95</v>
+        <v>-1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y53">
-        <v>0.1659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7098763</v>
+        <v>7094656</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="2">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2">
         <v>45184.36458333334</v>
       </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
       <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>38</v>
+      <c r